--- a/EO-EC-TA-full/Cz-full.xlsx
+++ b/EO-EC-TA-full/Cz-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408E1D5F-CDCF-4E92-A5C4-DD7B42905162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C99C75C-D0EE-495B-B95E-B1ACBAA813F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DA9F826-EAFB-4B16-9815-DDBAEB8CDBF8}"/>
   </bookViews>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8E6AD5-43D4-401C-94E2-C76BFAFA1CC6}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:L145"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="G25" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,23 +535,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>26.89066200752319</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10.842861738612569</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4.499119187263684</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.112897937027951</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.9238127025592699</v>
+      <c r="B2" s="4">
+        <v>39.400545329497049</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10.588800645608201</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.9422965986298539</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.5961409688248978</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.1816222747421046</v>
       </c>
       <c r="G2">
-        <v>47.26935357298666</v>
+        <v>61.709405817302127</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -573,23 +573,23 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>14.841178504788139</v>
-      </c>
-      <c r="C3" s="3">
-        <v>25.58169452198149</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.7529722307735423</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.9611830929635841</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.60830999349148</v>
+      <c r="B3" s="4">
+        <v>21.059371886295441</v>
+      </c>
+      <c r="C3" s="4">
+        <v>32.239069674654431</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.3310539425737429</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.7096343296451422</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.4297194989152211</v>
       </c>
       <c r="G3">
-        <v>50.745338343998228</v>
+        <v>61.768849332083967</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -598,36 +598,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>11.47690952667222</v>
-      </c>
-      <c r="C4" s="3">
-        <v>29.28420112815628</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.3550480470243871</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.9520133843655052</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.6089347921987138</v>
+      <c r="B4" s="4">
+        <v>16.494633920667919</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.9719646364789014</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.3787945452099439</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9.518753708378874</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.6317651378479958</v>
       </c>
       <c r="G4">
-        <v>52.677106878417113</v>
+        <v>41.995911948583633</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -636,36 +636,36 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>39.835111709953956</v>
-      </c>
-      <c r="C5" s="3">
-        <v>12.845737496937341</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5.6052151431915052</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.7914858181966888</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.777332675119204</v>
+      <c r="B5" s="4">
+        <v>19.554609632266551</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.4196321811739399</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.7645858027852932</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.5803793512129918</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.6412126556056039</v>
       </c>
       <c r="G5">
-        <v>65.854882843398684</v>
+        <v>36.960419623044373</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -687,23 +687,23 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>11.00424477341751</v>
-      </c>
-      <c r="C6" s="3">
-        <v>15.999686228869299</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.729757661366321</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.622501490352962</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.207665538392336</v>
+      <c r="B6" s="4">
+        <v>40.204631038400187</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13.749565227046469</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.0980483520170887</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.5250240146898877</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.3037189525783024</v>
       </c>
       <c r="G6">
-        <v>37.56385569239842</v>
+        <v>68.88098758473194</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -714,34 +714,34 @@
       <c r="J6">
         <v>16</v>
       </c>
-      <c r="K6" s="3">
-        <v>0</v>
+      <c r="K6" s="4">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>33.159548954745553</v>
-      </c>
-      <c r="C7" s="3">
-        <v>16.967260771723129</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.1696834471601179</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.622695437765846</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.4305714230950848</v>
+      <c r="B7" s="4">
+        <v>25.854776821776479</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.1940312347247506</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.4263272038979338</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.2928434432677149</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.0616929553851131</v>
       </c>
       <c r="G7">
-        <v>63.349760034489748</v>
+        <v>43.829671659052003</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -764,22 +764,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>9.4929399976248767</v>
+        <v>26.89066200752319</v>
       </c>
       <c r="C8" s="3">
-        <v>17.15817427653737</v>
+        <v>10.842861738612569</v>
       </c>
       <c r="D8" s="3">
-        <v>6.2156507655365214</v>
+        <v>4.499119187263684</v>
       </c>
       <c r="E8" s="3">
-        <v>3.658971170512288</v>
+        <v>3.112897937027951</v>
       </c>
       <c r="F8" s="3">
-        <v>5.1863271584541444</v>
+        <v>1.9238127025592699</v>
       </c>
       <c r="G8">
-        <v>41.712063368665198</v>
+        <v>47.26935357298666</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -801,23 +801,23 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>23.495246472330781</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10.670815844051971</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7.3687829574659656</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.3035733791086237</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4.539694536202072</v>
+      <c r="B9" s="4">
+        <v>46.739892842285244</v>
+      </c>
+      <c r="C9" s="4">
+        <v>14.127586973250621</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.5237821833227301</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.0616173395362436</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.5911941186119689</v>
       </c>
       <c r="G9">
-        <v>50.378113189159421</v>
+        <v>73.044073457006803</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -840,22 +840,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>7.2021610259089064</v>
+        <v>14.841178504788139</v>
       </c>
       <c r="C10" s="3">
-        <v>21.046909173715051</v>
+        <v>25.58169452198149</v>
       </c>
       <c r="D10" s="3">
-        <v>7.3891163342488193</v>
+        <v>4.7529722307735423</v>
       </c>
       <c r="E10" s="3">
-        <v>4.825692953596473</v>
+        <v>2.9611830929635841</v>
       </c>
       <c r="F10" s="3">
-        <v>4.1872252366717726</v>
+        <v>2.60830999349148</v>
       </c>
       <c r="G10">
-        <v>44.651104724141007</v>
+        <v>50.745338343998228</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -878,22 +878,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>38.769760321804533</v>
+        <v>6.6006865594315141</v>
       </c>
       <c r="C11" s="3">
-        <v>10.668730141486209</v>
+        <v>21.743239790648829</v>
       </c>
       <c r="D11" s="3">
-        <v>7.9348245933680071</v>
+        <v>4.7543173501507283</v>
       </c>
       <c r="E11" s="3">
-        <v>2.891569361281308</v>
+        <v>2.96937195555194</v>
       </c>
       <c r="F11" s="3">
-        <v>2.6967836506758438</v>
+        <v>2.4894687293943658</v>
       </c>
       <c r="G11">
-        <v>62.961668068615907</v>
+        <v>38.55708438517739</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -916,22 +916,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>28.754856672286959</v>
+        <v>37.810923823536811</v>
       </c>
       <c r="C12" s="3">
-        <v>11.406960338583289</v>
+        <v>12.967449807120159</v>
       </c>
       <c r="D12" s="3">
-        <v>9.2348486310900473</v>
+        <v>4.9411781158041999</v>
       </c>
       <c r="E12" s="3">
-        <v>3.9922545866598429</v>
+        <v>3.359535114932628</v>
       </c>
       <c r="F12" s="3">
-        <v>3.4026435116110658</v>
+        <v>1.9231050348891909</v>
       </c>
       <c r="G12">
-        <v>56.791563740231211</v>
+        <v>61.002191896283001</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -946,30 +946,30 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>15.01316363794891</v>
-      </c>
-      <c r="C13" s="3">
-        <v>51.220720048915098</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9.5115532602194257</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.112625870652681</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.1551384751404337</v>
+      <c r="B13" s="4">
+        <v>45.389419338817909</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10.34654078566588</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.2772298952180838</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.5400386109259729</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.1081625965532429</v>
       </c>
       <c r="G13">
-        <v>84.013201292876559</v>
+        <v>68.661391227181085</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -992,22 +992,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>70.35009752674398</v>
+        <v>11.47690952667222</v>
       </c>
       <c r="C14" s="3">
-        <v>51.47876819621986</v>
+        <v>29.28420112815628</v>
       </c>
       <c r="D14" s="3">
-        <v>9.5156581546771868</v>
+        <v>5.3550480470243871</v>
       </c>
       <c r="E14" s="3">
-        <v>8.2474349282082091</v>
+        <v>2.9520133843655052</v>
       </c>
       <c r="F14" s="3">
-        <v>5.8785251868460877</v>
+        <v>3.6089347921987138</v>
       </c>
       <c r="G14">
-        <v>145.47048399269531</v>
+        <v>52.677106878417113</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1030,22 +1030,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>29.759722462198699</v>
+        <v>39.835111709953956</v>
       </c>
       <c r="C15" s="3">
-        <v>13.6524038269845</v>
+        <v>12.845737496937341</v>
       </c>
       <c r="D15" s="3">
-        <v>10.629628328289421</v>
+        <v>5.6052151431915052</v>
       </c>
       <c r="E15" s="3">
-        <v>6.4454313611967589</v>
+        <v>4.7914858181966888</v>
       </c>
       <c r="F15" s="3">
-        <v>4.5068194672493043</v>
+        <v>2.777332675119204</v>
       </c>
       <c r="G15">
-        <v>64.994005445918674</v>
+        <v>65.854882843398684</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>150.1617916984041</v>
+        <v>11.00424477341751</v>
       </c>
       <c r="C16" s="3">
-        <v>14.05321372027619</v>
+        <v>15.999686228869299</v>
       </c>
       <c r="D16" s="3">
-        <v>11.401441282544059</v>
+        <v>5.729757661366321</v>
       </c>
       <c r="E16" s="3">
-        <v>4.0522151910406947</v>
+        <v>2.622501490352962</v>
       </c>
       <c r="F16" s="3">
-        <v>2.5108107055518758</v>
+        <v>2.207665538392336</v>
       </c>
       <c r="G16">
-        <v>182.1794725978169</v>
+        <v>37.56385569239842</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -1106,22 +1106,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>38.054482109903127</v>
+        <v>87.662357693130332</v>
       </c>
       <c r="C17" s="3">
-        <v>37.480488255927071</v>
+        <v>17.171830465746769</v>
       </c>
       <c r="D17" s="3">
-        <v>13.10097368244463</v>
+        <v>5.7980572569104183</v>
       </c>
       <c r="E17" s="3">
-        <v>6.0691752850293286</v>
+        <v>4.3029574286873498</v>
       </c>
       <c r="F17" s="3">
-        <v>5.0049937782287071</v>
+        <v>3.89886885113166</v>
       </c>
       <c r="G17">
-        <v>99.71011311153292</v>
+        <v>118.8340716956065</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1130,36 +1130,36 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
-        <v>19.53855926336816</v>
-      </c>
-      <c r="C18" s="3">
-        <v>159.95467142252031</v>
-      </c>
-      <c r="D18" s="3">
-        <v>14.978853913242309</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7.30484561160476</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2.9044245818125991</v>
+      <c r="B18" s="4">
+        <v>47.944957729377883</v>
+      </c>
+      <c r="C18" s="4">
+        <v>22.891881018106421</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.9603350751478503</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5.1705942612837532</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.1402907022635311</v>
       </c>
       <c r="G18">
-        <v>204.68135479254809</v>
+        <v>86.108058786179427</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1182,22 +1182,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>64.717028754451078</v>
+        <v>33.159548954745553</v>
       </c>
       <c r="C19" s="3">
-        <v>19.823901400531209</v>
+        <v>16.967260771723129</v>
       </c>
       <c r="D19" s="3">
-        <v>16.959144877645979</v>
+        <v>6.1696834471601179</v>
       </c>
       <c r="E19" s="3">
-        <v>6.3385438854444178</v>
+        <v>3.622695437765846</v>
       </c>
       <c r="F19" s="3">
-        <v>4.0178205260575517</v>
+        <v>3.4305714230950848</v>
       </c>
       <c r="G19">
-        <v>111.8564394441302</v>
+        <v>63.349760034489748</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>40.856271170744961</v>
+        <v>9.4929399976248767</v>
       </c>
       <c r="C20" s="3">
-        <v>14.335861633953741</v>
+        <v>17.15817427653737</v>
       </c>
       <c r="D20" s="3">
-        <v>18.592601824409378</v>
+        <v>6.2156507655365214</v>
       </c>
       <c r="E20" s="3">
-        <v>6.1426028104925052</v>
+        <v>3.658971170512288</v>
       </c>
       <c r="F20" s="3">
-        <v>2.8694720211044431</v>
+        <v>5.1863271584541444</v>
       </c>
       <c r="G20">
-        <v>82.79680946070502</v>
+        <v>41.712063368665198</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1257,23 +1257,23 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3">
-        <v>34.845605720432047</v>
-      </c>
-      <c r="C21" s="3">
-        <v>22.75787932334104</v>
-      </c>
-      <c r="D21" s="3">
-        <v>21.94793949266759</v>
-      </c>
-      <c r="E21" s="3">
-        <v>16.021979435303791</v>
-      </c>
-      <c r="F21" s="3">
-        <v>24.214938281696799</v>
+      <c r="B21" s="4">
+        <v>24.688388461236158</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.5715755525099926</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6.3548912331283356</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.3360063631956907</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9.4692724044662295</v>
       </c>
       <c r="G21">
-        <v>119.7883422534413</v>
+        <v>57.420134014536387</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -1296,22 +1296,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>50.387192073828537</v>
+        <v>7.3888013719282117</v>
       </c>
       <c r="C22" s="3">
-        <v>23.37916527857168</v>
+        <v>18.03167292083285</v>
       </c>
       <c r="D22" s="3">
-        <v>22.21322924824478</v>
+        <v>6.4162059166300356</v>
       </c>
       <c r="E22" s="3">
-        <v>21.12458855439608</v>
+        <v>2.926998204524466</v>
       </c>
       <c r="F22" s="3">
-        <v>13.07159748269866</v>
+        <v>3.4914029777887521</v>
       </c>
       <c r="G22">
-        <v>130.1757726377397</v>
+        <v>38.255081391704309</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1320,36 +1320,36 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
-        <v>34.945078453366399</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20.16433690517173</v>
-      </c>
-      <c r="D23" s="3">
-        <v>42.146012309315019</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6.2676306087541898</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3.407132420712816</v>
+      <c r="B23" s="4">
+        <v>21.05323828547824</v>
+      </c>
+      <c r="C23" s="4">
+        <v>17.399971050397419</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6.4350303127635318</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.6565961603661812</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.070475693547047</v>
       </c>
       <c r="G23">
-        <v>106.9301906973202</v>
+        <v>48.615311502552409</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1371,23 +1371,23 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <v>50.659233559510163</v>
-      </c>
-      <c r="C24" s="3">
-        <v>33.479581913383001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>83.417951004292576</v>
-      </c>
-      <c r="E24" s="3">
-        <v>26.923695312195509</v>
-      </c>
-      <c r="F24" s="3">
-        <v>29.71627493097499</v>
+      <c r="B24" s="4">
+        <v>144.4771136060038</v>
+      </c>
+      <c r="C24" s="4">
+        <v>34.272983162150076</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6.4936740362311092</v>
+      </c>
+      <c r="E24" s="4">
+        <v>9.1636205867119394</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.7916593146016666</v>
       </c>
       <c r="G24">
-        <v>224.19673672035631</v>
+        <v>200.19905070569871</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1396,36 +1396,36 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3">
-        <v>6.6006865594315141</v>
-      </c>
-      <c r="C25" s="3">
-        <v>21.743239790648829</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4.7543173501507283</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.96937195555194</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.4894687293943658</v>
+      <c r="B25" s="4">
+        <v>20.82920752070412</v>
+      </c>
+      <c r="C25" s="4">
+        <v>14.004998823068179</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.6449097717588987</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.312758368515718</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4.9385992603943452</v>
       </c>
       <c r="G25">
-        <v>38.55708438517739</v>
+        <v>51.730473744441269</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1434,36 +1434,36 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3">
-        <v>13.82818176515377</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12.723558976239079</v>
-      </c>
-      <c r="D26" s="3">
-        <v>13.631457380874281</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4.6462183882110786</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2.6806221583666452</v>
+      <c r="B26" s="4">
+        <v>63.162866045230658</v>
+      </c>
+      <c r="C26" s="4">
+        <v>16.24231585470865</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.7416233923503457</v>
+      </c>
+      <c r="E26" s="4">
+        <v>9.837396594162982</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8.9965377159044024</v>
       </c>
       <c r="G26">
-        <v>47.510038668844857</v>
+        <v>104.980739602357</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1472,36 +1472,36 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>7</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="3">
-        <v>12.031663002276041</v>
-      </c>
-      <c r="C27" s="3">
-        <v>27.456506606870281</v>
-      </c>
-      <c r="D27" s="3">
-        <v>8.9327042090377429</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.9374342529595361</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2.9349483110838741</v>
+      <c r="B27" s="4">
+        <v>56.101287645069277</v>
+      </c>
+      <c r="C27" s="4">
+        <v>23.4439481950219</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6.8044908923440994</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.156050595027283</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.805835676343416</v>
       </c>
       <c r="G27">
-        <v>55.293256382227497</v>
+        <v>91.311613003805945</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1510,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1524,22 +1524,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>113.77642198532401</v>
+        <v>22.327974416867882</v>
       </c>
       <c r="C28" s="3">
-        <v>34.002260573512487</v>
+        <v>46.454782021503583</v>
       </c>
       <c r="D28" s="3">
-        <v>22.775127415939391</v>
+        <v>6.8161357862647378</v>
       </c>
       <c r="E28" s="3">
-        <v>6.2380954164482478</v>
+        <v>4.6949669137382486</v>
       </c>
       <c r="F28" s="3">
-        <v>3.0812848668679731</v>
+        <v>5.4176780501102293</v>
       </c>
       <c r="G28">
-        <v>179.87319025809211</v>
+        <v>85.71153718848467</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>14</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1562,22 +1562,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>25.019088773717499</v>
+        <v>23.495246472330781</v>
       </c>
       <c r="C29" s="3">
-        <v>16.168417813572969</v>
+        <v>10.670815844051971</v>
       </c>
       <c r="D29" s="3">
-        <v>8.5951176177377917</v>
+        <v>7.3687829574659656</v>
       </c>
       <c r="E29" s="3">
-        <v>3.6962728734071568</v>
+        <v>4.3035733791086237</v>
       </c>
       <c r="F29" s="3">
-        <v>3.0942672765382109</v>
+        <v>4.539694536202072</v>
       </c>
       <c r="G29">
-        <v>56.573164354973628</v>
+        <v>50.378113189159421</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1586,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1600,22 +1600,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>42.331050140066097</v>
+        <v>7.2021610259089064</v>
       </c>
       <c r="C30" s="3">
-        <v>12.66120450085929</v>
+        <v>21.046909173715051</v>
       </c>
       <c r="D30" s="3">
-        <v>8.8758683156940101</v>
+        <v>7.3891163342488193</v>
       </c>
       <c r="E30" s="3">
-        <v>5.7948015119432039</v>
+        <v>4.825692953596473</v>
       </c>
       <c r="F30" s="3">
-        <v>3.2374404276447848</v>
+        <v>4.1872252366717726</v>
       </c>
       <c r="G30">
-        <v>72.900364896207378</v>
+        <v>44.651104724141007</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1624,36 +1624,36 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3">
-        <v>7.3888013719282117</v>
-      </c>
-      <c r="C31" s="3">
-        <v>18.03167292083285</v>
-      </c>
-      <c r="D31" s="3">
-        <v>6.4162059166300356</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2.926998204524466</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3.4914029777887521</v>
+      <c r="B31" s="4">
+        <v>23.071508432276421</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10.289251537558259</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7.5041577414846863</v>
+      </c>
+      <c r="E31" s="4">
+        <v>8.681581826378002</v>
+      </c>
+      <c r="F31" s="4">
+        <v>6.1642374708247347</v>
       </c>
       <c r="G31">
-        <v>38.255081391704309</v>
+        <v>55.710737008522123</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1662,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>23</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1676,22 +1676,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>39.62628745156205</v>
+        <v>18.67622620671305</v>
       </c>
       <c r="C32" s="3">
-        <v>15.34908648885669</v>
+        <v>41.450368762935618</v>
       </c>
       <c r="D32" s="3">
-        <v>23.6005439916275</v>
+        <v>7.7441965528854313</v>
       </c>
       <c r="E32" s="3">
-        <v>4.8036396788881888</v>
+        <v>5.0678280417971253</v>
       </c>
       <c r="F32" s="3">
-        <v>3.689827532837894</v>
+        <v>4.6769541831096841</v>
       </c>
       <c r="G32">
-        <v>87.069385143772337</v>
+        <v>77.615573747440891</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1714,22 +1714,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>35.949833805661562</v>
+        <v>38.769760321804533</v>
       </c>
       <c r="C33" s="3">
-        <v>24.065680776494819</v>
+        <v>10.668730141486209</v>
       </c>
       <c r="D33" s="3">
-        <v>71.722581288278377</v>
+        <v>7.9348245933680071</v>
       </c>
       <c r="E33" s="3">
-        <v>7.3947128513960063</v>
+        <v>2.891569361281308</v>
       </c>
       <c r="F33" s="3">
-        <v>3.7299631355635552</v>
+        <v>2.6967836506758438</v>
       </c>
       <c r="G33">
-        <v>142.86277185739431</v>
+        <v>62.961668068615907</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1738,36 +1738,36 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="3">
-        <v>31.036321905157919</v>
-      </c>
-      <c r="C34" s="3">
-        <v>15.17552219245816</v>
-      </c>
-      <c r="D34" s="3">
-        <v>17.08634215872285</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5.4843910967920886</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3.773631739311754</v>
+      <c r="B34" s="4">
+        <v>61.682518267644546</v>
+      </c>
+      <c r="C34" s="4">
+        <v>24.320930714179848</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7.9589460388650934</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7.0202389175824784</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.0254452280147346</v>
       </c>
       <c r="G34">
-        <v>72.556209092442771</v>
+        <v>106.00807916628671</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1776,36 +1776,36 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>8</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="3">
-        <v>33.796665927121367</v>
-      </c>
-      <c r="C35" s="3">
-        <v>21.477569416988249</v>
-      </c>
-      <c r="D35" s="3">
-        <v>88.508962451389337</v>
-      </c>
-      <c r="E35" s="3">
-        <v>9.0047232909749368</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3.832843776640896</v>
+      <c r="B35" s="4">
+        <v>16.079108685864458</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9.7940118474465088</v>
+      </c>
+      <c r="D35" s="4">
+        <v>8.0142927334192571</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5.0614553617908404</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4.5869894205610757</v>
       </c>
       <c r="G35">
-        <v>156.6207648631148</v>
+        <v>43.53585804908213</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1814,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>17</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1828,22 +1828,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>33.061267361554847</v>
+        <v>25.019088773717499</v>
       </c>
       <c r="C36" s="3">
-        <v>36.717147142090766</v>
+        <v>16.168417813572969</v>
       </c>
       <c r="D36" s="3">
-        <v>44.267236066996063</v>
+        <v>8.5951176177377917</v>
       </c>
       <c r="E36" s="3">
-        <v>6.6359176719217672</v>
+        <v>3.6962728734071568</v>
       </c>
       <c r="F36" s="3">
-        <v>4.0109252065443526</v>
+        <v>3.0942672765382109</v>
       </c>
       <c r="G36">
-        <v>124.6924934491078</v>
+        <v>56.573164354973628</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -1866,22 +1866,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>5.4005841044849916</v>
+        <v>49.734099248608807</v>
       </c>
       <c r="C37" s="3">
-        <v>29.646435499440649</v>
+        <v>64.934665669885732</v>
       </c>
       <c r="D37" s="3">
-        <v>24.885859365576749</v>
+        <v>8.6340027752338315</v>
       </c>
       <c r="E37" s="3">
-        <v>5.5569478903989022</v>
+        <v>7.8724772824589042</v>
       </c>
       <c r="F37" s="3">
-        <v>4.4471419679520876</v>
+        <v>5.9838563097097399</v>
       </c>
       <c r="G37">
-        <v>69.936968827853363</v>
+        <v>137.15910128589701</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1890,36 +1890,36 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3">
-        <v>48.625796280048412</v>
-      </c>
-      <c r="C38" s="3">
-        <v>19.048555665635138</v>
-      </c>
-      <c r="D38" s="3">
-        <v>36.604290189119943</v>
-      </c>
-      <c r="E38" s="3">
-        <v>7.5136752295014091</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4.479724503553852</v>
+      <c r="B38" s="4">
+        <v>42.053152754370849</v>
+      </c>
+      <c r="C38" s="4">
+        <v>8.7166223367953304</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.6680565072760256</v>
+      </c>
+      <c r="E38" s="4">
+        <v>7.7703879900708888</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4.5547233375897704</v>
       </c>
       <c r="G38">
-        <v>116.2720418678587</v>
+        <v>71.762942926102866</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1942,22 +1942,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>30.49432354642747</v>
+        <v>42.331050140066097</v>
       </c>
       <c r="C39" s="3">
-        <v>13.69263295203149</v>
+        <v>12.66120450085929</v>
       </c>
       <c r="D39" s="3">
-        <v>19.33370483125978</v>
+        <v>8.8758683156940101</v>
       </c>
       <c r="E39" s="3">
-        <v>11.60012641709103</v>
+        <v>5.7948015119432039</v>
       </c>
       <c r="F39" s="3">
-        <v>4.8535506687343251</v>
+        <v>3.2374404276447848</v>
       </c>
       <c r="G39">
-        <v>79.974338415544082</v>
+        <v>72.900364896207378</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -1980,22 +1980,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>7.3157872234537979</v>
+        <v>12.031663002276041</v>
       </c>
       <c r="C40" s="3">
-        <v>28.862948097598618</v>
+        <v>27.456506606870281</v>
       </c>
       <c r="D40" s="3">
-        <v>20.55659935718624</v>
+        <v>8.9327042090377429</v>
       </c>
       <c r="E40" s="3">
-        <v>6.5047294175228894</v>
+        <v>3.9374342529595361</v>
       </c>
       <c r="F40" s="3">
-        <v>5.0656492974503804</v>
+        <v>2.9349483110838741</v>
       </c>
       <c r="G40">
-        <v>68.305713393211931</v>
+        <v>55.293256382227497</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
@@ -2017,23 +2017,23 @@
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="3">
-        <v>77.016664176063188</v>
-      </c>
-      <c r="C41" s="3">
-        <v>58.257435187540587</v>
-      </c>
-      <c r="D41" s="3">
-        <v>10.19663685249199</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7.8062896553507883</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5.2846794691215671</v>
+      <c r="B41" s="4">
+        <v>38.140097137748917</v>
+      </c>
+      <c r="C41" s="4">
+        <v>20.845238860060501</v>
+      </c>
+      <c r="D41" s="4">
+        <v>9.1276213389537162</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5.7807047672364504</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5.3301631255514783</v>
       </c>
       <c r="G41">
-        <v>158.5617053405681</v>
+        <v>79.223825229551068</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2042,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>9</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2056,22 +2056,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>9.1841310266003955</v>
+        <v>28.754856672286959</v>
       </c>
       <c r="C42" s="3">
-        <v>46.599037100440427</v>
+        <v>11.406960338583289</v>
       </c>
       <c r="D42" s="3">
-        <v>17.34686176757204</v>
+        <v>9.2348486310900473</v>
       </c>
       <c r="E42" s="3">
-        <v>4.2526921845650421</v>
+        <v>3.9922545866598429</v>
       </c>
       <c r="F42" s="3">
-        <v>5.3743582894893862</v>
+        <v>3.4026435116110658</v>
       </c>
       <c r="G42">
-        <v>82.757080368667289</v>
+        <v>56.791563740231211</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2080,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2094,22 +2094,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>43.432522689355856</v>
+        <v>15.01316363794891</v>
       </c>
       <c r="C43" s="3">
-        <v>31.825480232849898</v>
+        <v>51.220720048915098</v>
       </c>
       <c r="D43" s="3">
-        <v>99.942875990044485</v>
+        <v>9.5115532602194257</v>
       </c>
       <c r="E43" s="3">
-        <v>16.485856422298411</v>
+        <v>4.112625870652681</v>
       </c>
       <c r="F43" s="3">
-        <v>6.2824368029180029</v>
+        <v>4.1551384751404337</v>
       </c>
       <c r="G43">
-        <v>197.9691721374667</v>
+        <v>84.013201292876559</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2118,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2132,22 +2132,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>7.157785083651854</v>
+        <v>70.35009752674398</v>
       </c>
       <c r="C44" s="3">
-        <v>42.366945688650297</v>
+        <v>51.47876819621986</v>
       </c>
       <c r="D44" s="3">
-        <v>23.425633551979139</v>
+        <v>9.5156581546771868</v>
       </c>
       <c r="E44" s="3">
-        <v>5.5487093270643708</v>
+        <v>8.2474349282082091</v>
       </c>
       <c r="F44" s="3">
-        <v>6.3072939110531756</v>
+        <v>5.8785251868460877</v>
       </c>
       <c r="G44">
-        <v>84.806367562398833</v>
+        <v>145.47048399269531</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2156,36 +2156,36 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3">
-        <v>13.471003365595241</v>
-      </c>
-      <c r="C45" s="3">
-        <v>70.913194725987083</v>
-      </c>
-      <c r="D45" s="3">
-        <v>35.26449306582164</v>
-      </c>
-      <c r="E45" s="3">
-        <v>9.6236668463718971</v>
-      </c>
-      <c r="F45" s="3">
-        <v>13.08898501294731</v>
+      <c r="B45" s="4">
+        <v>12.190134125708459</v>
+      </c>
+      <c r="C45" s="4">
+        <v>8.8583377692773979</v>
+      </c>
+      <c r="D45" s="4">
+        <v>9.5429609374951827</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3.2282937297445562</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2.4088400471778422</v>
       </c>
       <c r="G45">
-        <v>142.36134301672311</v>
+        <v>36.228566609403437</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2194,13 +2194,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>19</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2208,22 +2208,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>2590.4869589748541</v>
+        <v>10.831675413455169</v>
       </c>
       <c r="C46" s="3">
-        <v>169.7207471260628</v>
+        <v>28.37838606129537</v>
       </c>
       <c r="D46" s="3">
-        <v>104.93377137794511</v>
+        <v>9.6852395480448514</v>
       </c>
       <c r="E46" s="3">
-        <v>187.55771657536741</v>
+        <v>3.627698159198669</v>
       </c>
       <c r="F46" s="3">
-        <v>377.86311274465407</v>
+        <v>2.334868618073211</v>
       </c>
       <c r="G46">
-        <v>3430.5623067988831</v>
+        <v>54.857867800067268</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2246,22 +2246,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>37.810923823536811</v>
+        <v>77.016664176063188</v>
       </c>
       <c r="C47" s="3">
-        <v>12.967449807120159</v>
+        <v>58.257435187540587</v>
       </c>
       <c r="D47" s="3">
-        <v>4.9411781158041999</v>
+        <v>10.19663685249199</v>
       </c>
       <c r="E47" s="3">
-        <v>3.359535114932628</v>
+        <v>7.8062896553507883</v>
       </c>
       <c r="F47" s="3">
-        <v>1.9231050348891909</v>
+        <v>5.2846794691215671</v>
       </c>
       <c r="G47">
-        <v>61.002191896283001</v>
+        <v>158.5617053405681</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2270,36 +2270,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>1447.540317117448</v>
-      </c>
-      <c r="C48" s="3">
-        <v>95.281229006976176</v>
-      </c>
-      <c r="D48" s="3">
-        <v>11.847196008272849</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4.3413750411900676</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2.2440683436774989</v>
+      <c r="B48" s="4">
+        <v>15.913254393120351</v>
+      </c>
+      <c r="C48" s="4">
+        <v>9.7758433983730786</v>
+      </c>
+      <c r="D48" s="4">
+        <v>10.57914287523484</v>
+      </c>
+      <c r="E48" s="4">
+        <v>24.21436637922487</v>
+      </c>
+      <c r="F48" s="4">
+        <v>9.8121404119260731</v>
       </c>
       <c r="G48">
-        <v>1561.2541855175641</v>
+        <v>70.294747457879197</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2308,13 +2308,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>13</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2322,22 +2322,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="3">
-        <v>10.831675413455169</v>
+        <v>29.759722462198699</v>
       </c>
       <c r="C49" s="3">
-        <v>28.37838606129537</v>
+        <v>13.6524038269845</v>
       </c>
       <c r="D49" s="3">
-        <v>9.6852395480448514</v>
+        <v>10.629628328289421</v>
       </c>
       <c r="E49" s="3">
-        <v>3.627698159198669</v>
+        <v>6.4454313611967589</v>
       </c>
       <c r="F49" s="3">
-        <v>2.334868618073211</v>
+        <v>4.5068194672493043</v>
       </c>
       <c r="G49">
-        <v>54.857867800067268</v>
+        <v>64.994005445918674</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2346,36 +2346,36 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3">
-        <v>87.662357693130332</v>
-      </c>
-      <c r="C50" s="3">
-        <v>17.171830465746769</v>
-      </c>
-      <c r="D50" s="3">
-        <v>5.7980572569104183</v>
-      </c>
-      <c r="E50" s="3">
-        <v>4.3029574286873498</v>
-      </c>
-      <c r="F50" s="3">
-        <v>3.89886885113166</v>
+      <c r="B50" s="4">
+        <v>33.606248960559043</v>
+      </c>
+      <c r="C50" s="4">
+        <v>16.74702181622915</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10.630002506488291</v>
+      </c>
+      <c r="E50" s="4">
+        <v>13.447224337531409</v>
+      </c>
+      <c r="F50" s="4">
+        <v>16.13197956364392</v>
       </c>
       <c r="G50">
-        <v>118.8340716956065</v>
+        <v>90.562477184451808</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>15</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
       </c>
       <c r="L50" t="s">
         <v>14</v>
@@ -2398,22 +2398,22 @@
         <v>11</v>
       </c>
       <c r="B51" s="3">
-        <v>29.919699939009931</v>
+        <v>150.1617916984041</v>
       </c>
       <c r="C51" s="3">
-        <v>187.08694689734179</v>
+        <v>14.05321372027619</v>
       </c>
       <c r="D51" s="3">
-        <v>17.885097457524029</v>
+        <v>11.401441282544059</v>
       </c>
       <c r="E51" s="3">
-        <v>9.2419710659011169</v>
+        <v>4.0522151910406947</v>
       </c>
       <c r="F51" s="3">
-        <v>4.2439958255104422</v>
+        <v>2.5108107055518758</v>
       </c>
       <c r="G51">
-        <v>248.3777111852875</v>
+        <v>182.1794725978169</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2422,36 +2422,36 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>18.67622620671305</v>
-      </c>
-      <c r="C52" s="3">
-        <v>41.450368762935618</v>
-      </c>
-      <c r="D52" s="3">
-        <v>7.7441965528854313</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5.0678280417971253</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.6769541831096841</v>
+      <c r="B52" s="4">
+        <v>28.65023067673129</v>
+      </c>
+      <c r="C52" s="4">
+        <v>20.298850243426461</v>
+      </c>
+      <c r="D52" s="4">
+        <v>11.41719621549216</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.9081188035394949</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.2392119096313681</v>
       </c>
       <c r="G52">
-        <v>77.615573747440891</v>
+        <v>66.513607848820783</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>7</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
       </c>
       <c r="L52" t="s">
         <v>14</v>
@@ -2473,23 +2473,23 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>39.518513409862891</v>
-      </c>
-      <c r="C53" s="3">
-        <v>35.411497546441701</v>
-      </c>
-      <c r="D53" s="3">
-        <v>28.169953493168229</v>
-      </c>
-      <c r="E53" s="3">
-        <v>6.8553035102603603</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5.314994668602731</v>
+      <c r="B53" s="4">
+        <v>18.83732939249856</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9.1927851278072552</v>
+      </c>
+      <c r="D53" s="4">
+        <v>11.522767565521351</v>
+      </c>
+      <c r="E53" s="4">
+        <v>19.7978089342309</v>
+      </c>
+      <c r="F53" s="4">
+        <v>11.510567525327501</v>
       </c>
       <c r="G53">
-        <v>115.2702626283359</v>
+        <v>70.861258545385553</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2498,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>18</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2512,22 +2512,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>22.327974416867882</v>
+        <v>1447.540317117448</v>
       </c>
       <c r="C54" s="3">
-        <v>46.454782021503583</v>
+        <v>95.281229006976176</v>
       </c>
       <c r="D54" s="3">
-        <v>6.8161357862647378</v>
+        <v>11.847196008272849</v>
       </c>
       <c r="E54" s="3">
-        <v>4.6949669137382486</v>
+        <v>4.3413750411900676</v>
       </c>
       <c r="F54" s="3">
-        <v>5.4176780501102293</v>
+        <v>2.2440683436774989</v>
       </c>
       <c r="G54">
-        <v>85.71153718848467</v>
+        <v>1561.2541855175641</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2549,23 +2549,23 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3">
-        <v>14.366616110443321</v>
-      </c>
-      <c r="C55" s="3">
-        <v>33.779014879715326</v>
-      </c>
-      <c r="D55" s="3">
-        <v>16.746098651755052</v>
-      </c>
-      <c r="E55" s="3">
-        <v>6.2860155220583334</v>
-      </c>
-      <c r="F55" s="3">
-        <v>5.551541888005497</v>
+      <c r="B55" s="4">
+        <v>471.85888973422982</v>
+      </c>
+      <c r="C55" s="4">
+        <v>47.256292400423753</v>
+      </c>
+      <c r="D55" s="4">
+        <v>12.01632065932171</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5.2112918166203688</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2.7358784502824882</v>
       </c>
       <c r="G55">
-        <v>76.729287051977522</v>
+        <v>539.07867306087815</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2574,36 +2574,36 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>6</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3">
-        <v>49.734099248608807</v>
-      </c>
-      <c r="C56" s="3">
-        <v>64.934665669885732</v>
-      </c>
-      <c r="D56" s="3">
-        <v>8.6340027752338315</v>
-      </c>
-      <c r="E56" s="3">
-        <v>7.8724772824589042</v>
-      </c>
-      <c r="F56" s="3">
-        <v>5.9838563097097399</v>
+      <c r="B56" s="4">
+        <v>13.28280172031989</v>
+      </c>
+      <c r="C56" s="4">
+        <v>8.67332232386158</v>
+      </c>
+      <c r="D56" s="4">
+        <v>12.831343037400501</v>
+      </c>
+      <c r="E56" s="4">
+        <v>6.9287844982522753</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3.843675180486946</v>
       </c>
       <c r="G56">
-        <v>137.15910128589701</v>
+        <v>45.55992676032119</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2612,36 +2612,36 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C57" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D57" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E57" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B57" s="4">
+        <v>33.389288644564473</v>
+      </c>
+      <c r="C57" s="4">
+        <v>11.388126668596</v>
+      </c>
+      <c r="D57" s="4">
+        <v>12.884550198117219</v>
+      </c>
+      <c r="E57" s="4">
+        <v>13.67198618463417</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5.2545837129328428</v>
       </c>
       <c r="G57">
-        <v>116.3287576762781</v>
+        <v>76.588535408844706</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2650,36 +2650,36 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C58" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D58" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B58" s="4">
+        <v>82.86596872849708</v>
+      </c>
+      <c r="C58" s="4">
+        <v>39.797292464116637</v>
+      </c>
+      <c r="D58" s="4">
+        <v>12.9501991271236</v>
+      </c>
+      <c r="E58" s="4">
+        <v>19.685092213170169</v>
+      </c>
+      <c r="F58" s="4">
+        <v>29.061832133725211</v>
       </c>
       <c r="G58">
-        <v>116.3287576762781</v>
+        <v>184.36038466663271</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
       </c>
       <c r="L58" t="s">
         <v>14</v>
@@ -2701,23 +2701,23 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C59" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D59" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B59" s="4">
+        <v>36.531669866485053</v>
+      </c>
+      <c r="C59" s="4">
+        <v>13.51647248545607</v>
+      </c>
+      <c r="D59" s="4">
+        <v>13.021416557286351</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7.7112865062041864</v>
+      </c>
+      <c r="F59" s="4">
+        <v>5.8590823046404026</v>
       </c>
       <c r="G59">
-        <v>116.3287576762781</v>
+        <v>76.639927720072066</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2726,36 +2726,36 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C60" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D60" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E60" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B60" s="4">
+        <v>16.00308128556755</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10.588627918930101</v>
+      </c>
+      <c r="D60" s="4">
+        <v>13.04166096033658</v>
+      </c>
+      <c r="E60" s="4">
+        <v>14.53430703248403</v>
+      </c>
+      <c r="F60" s="4">
+        <v>13.11012523653263</v>
       </c>
       <c r="G60">
-        <v>116.3287576762781</v>
+        <v>67.277802433850894</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2778,22 +2778,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="3">
-        <v>22.997577865505981</v>
+        <v>38.054482109903127</v>
       </c>
       <c r="C61" s="3">
-        <v>65.427929038497822</v>
+        <v>37.480488255927071</v>
       </c>
       <c r="D61" s="3">
-        <v>15.33610361683899</v>
+        <v>13.10097368244463</v>
       </c>
       <c r="E61" s="3">
-        <v>5.6096587684949011</v>
+        <v>6.0691752850293286</v>
       </c>
       <c r="F61" s="3">
-        <v>6.9574883869403914</v>
+        <v>5.0049937782287071</v>
       </c>
       <c r="G61">
-        <v>116.3287576762781</v>
+        <v>99.71011311153292</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2802,36 +2802,36 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C62" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D62" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E62" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B62" s="4">
+        <v>29.107750192893281</v>
+      </c>
+      <c r="C62" s="4">
+        <v>12.13705870076614</v>
+      </c>
+      <c r="D62" s="4">
+        <v>13.374171187652729</v>
+      </c>
+      <c r="E62" s="4">
+        <v>14.217049368919289</v>
+      </c>
+      <c r="F62" s="4">
+        <v>5.429169371367113</v>
       </c>
       <c r="G62">
-        <v>116.3287576762781</v>
+        <v>74.265198821598545</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>12</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
       </c>
       <c r="L62" t="s">
         <v>14</v>
@@ -2853,23 +2853,23 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C63" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D63" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E63" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F63" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B63" s="4">
+        <v>24.539135564202429</v>
+      </c>
+      <c r="C63" s="4">
+        <v>20.943112459358769</v>
+      </c>
+      <c r="D63" s="4">
+        <v>13.390351911751459</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4.8969614353098834</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1.946533209733031</v>
       </c>
       <c r="G63">
-        <v>116.3287576762781</v>
+        <v>65.716094580355573</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2878,36 +2878,36 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>16</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="3">
-        <v>22.997577865505981</v>
-      </c>
-      <c r="C64" s="3">
-        <v>65.427929038497822</v>
-      </c>
-      <c r="D64" s="3">
-        <v>15.33610361683899</v>
-      </c>
-      <c r="E64" s="3">
-        <v>5.6096587684949011</v>
-      </c>
-      <c r="F64" s="3">
-        <v>6.9574883869403914</v>
+      <c r="B64" s="4">
+        <v>44.804413153259709</v>
+      </c>
+      <c r="C64" s="4">
+        <v>17.94057050437576</v>
+      </c>
+      <c r="D64" s="4">
+        <v>13.580684558235429</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7.7825887845969044</v>
+      </c>
+      <c r="F64" s="4">
+        <v>6.4180166597154864</v>
       </c>
       <c r="G64">
-        <v>116.3287576762781</v>
+        <v>90.526273660183293</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>17</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2930,22 +2930,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>22.997577865505981</v>
+        <v>13.82818176515377</v>
       </c>
       <c r="C65" s="3">
-        <v>65.427929038497822</v>
+        <v>12.723558976239079</v>
       </c>
       <c r="D65" s="3">
-        <v>15.33610361683899</v>
+        <v>13.631457380874281</v>
       </c>
       <c r="E65" s="3">
-        <v>5.6096587684949011</v>
+        <v>4.6462183882110786</v>
       </c>
       <c r="F65" s="3">
-        <v>6.9574883869403914</v>
+        <v>2.6806221583666452</v>
       </c>
       <c r="G65">
-        <v>116.3287576762781</v>
+        <v>47.510038668844857</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2954,36 +2954,36 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="3">
-        <v>45.615117734380803</v>
-      </c>
-      <c r="C66" s="3">
-        <v>32.566991925500133</v>
-      </c>
-      <c r="D66" s="3">
-        <v>25.039721734179011</v>
-      </c>
-      <c r="E66" s="3">
-        <v>20.902851905634911</v>
-      </c>
-      <c r="F66" s="3">
-        <v>18.00867592565336</v>
+      <c r="B66" s="4">
+        <v>59.461192904323667</v>
+      </c>
+      <c r="C66" s="4">
+        <v>20.611867264170041</v>
+      </c>
+      <c r="D66" s="4">
+        <v>14.140919919957581</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10.60593255102691</v>
+      </c>
+      <c r="F66" s="4">
+        <v>9.7398671991345793</v>
       </c>
       <c r="G66">
-        <v>142.13335922534819</v>
+        <v>114.5597798386128</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>19</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
       </c>
       <c r="L66" t="s">
         <v>14</v>
@@ -3006,22 +3006,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>1809.3810379391321</v>
+        <v>19.53855926336816</v>
       </c>
       <c r="C67" s="3">
-        <v>328.92160399326849</v>
+        <v>159.95467142252031</v>
       </c>
       <c r="D67" s="3">
-        <v>69.238317537377995</v>
+        <v>14.978853913242309</v>
       </c>
       <c r="E67" s="3">
-        <v>35.889117701170953</v>
+        <v>7.30484561160476</v>
       </c>
       <c r="F67" s="3">
-        <v>19.145274396706832</v>
+        <v>2.9044245818125991</v>
       </c>
       <c r="G67">
-        <v>2262.575351567657</v>
+        <v>204.68135479254809</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3030,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3044,22 +3044,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="3">
-        <v>18.470330917288269</v>
+        <v>22.997577865505981</v>
       </c>
       <c r="C68" s="3">
-        <v>26.14505389356588</v>
+        <v>65.427929038497822</v>
       </c>
       <c r="D68" s="3">
-        <v>22.13971996583647</v>
+        <v>15.33610361683899</v>
       </c>
       <c r="E68" s="3">
-        <v>26.929756202674952</v>
+        <v>5.6096587684949011</v>
       </c>
       <c r="F68" s="3">
-        <v>46.156526621266522</v>
+        <v>6.9574883869403914</v>
       </c>
       <c r="G68">
-        <v>139.84138760063209</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
@@ -3081,23 +3081,23 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
-        <v>39.400545329497049</v>
-      </c>
-      <c r="C69" s="4">
-        <v>10.588800645608201</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2.9422965986298539</v>
-      </c>
-      <c r="E69" s="4">
-        <v>4.5961409688248978</v>
-      </c>
-      <c r="F69" s="4">
-        <v>4.1816222747421046</v>
+      <c r="B69" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C69" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D69" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F69" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G69">
-        <v>61.709405817302127</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3106,36 +3106,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>17</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="4">
-        <v>19.554609632266551</v>
-      </c>
-      <c r="C70" s="4">
-        <v>8.4196321811739399</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3.7645858027852932</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2.5803793512129918</v>
-      </c>
-      <c r="F70" s="4">
-        <v>2.6412126556056039</v>
+      <c r="B70" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C70" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D70" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G70">
-        <v>36.960419623044373</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3144,36 +3144,36 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>10</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="4">
-        <v>25.854776821776479</v>
-      </c>
-      <c r="C71" s="4">
-        <v>8.1940312347247506</v>
-      </c>
-      <c r="D71" s="4">
-        <v>4.4263272038979338</v>
-      </c>
-      <c r="E71" s="4">
-        <v>3.2928434432677149</v>
-      </c>
-      <c r="F71" s="4">
-        <v>2.0616929553851131</v>
+      <c r="B71" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C71" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D71" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F71" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G71">
-        <v>43.829671659052003</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3182,36 +3182,36 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>13</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4">
-        <v>47.944957729377883</v>
-      </c>
-      <c r="C72" s="4">
-        <v>22.891881018106421</v>
-      </c>
-      <c r="D72" s="4">
-        <v>5.9603350751478503</v>
-      </c>
-      <c r="E72" s="4">
-        <v>5.1705942612837532</v>
-      </c>
-      <c r="F72" s="4">
-        <v>4.1402907022635311</v>
+      <c r="B72" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C72" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D72" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G72">
-        <v>86.108058786179427</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3220,36 +3220,36 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>5</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="4">
-        <v>24.688388461236158</v>
-      </c>
-      <c r="C73" s="4">
-        <v>9.5715755525099926</v>
-      </c>
-      <c r="D73" s="4">
-        <v>6.3548912331283356</v>
-      </c>
-      <c r="E73" s="4">
-        <v>7.3360063631956907</v>
-      </c>
-      <c r="F73" s="4">
-        <v>9.4692724044662295</v>
+      <c r="B73" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C73" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D73" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F73" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G73">
-        <v>57.420134014536387</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3258,36 +3258,36 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="4">
-        <v>21.05323828547824</v>
-      </c>
-      <c r="C74" s="4">
-        <v>17.399971050397419</v>
-      </c>
-      <c r="D74" s="4">
-        <v>6.4350303127635318</v>
-      </c>
-      <c r="E74" s="4">
-        <v>2.6565961603661812</v>
-      </c>
-      <c r="F74" s="4">
-        <v>1.070475693547047</v>
+      <c r="B74" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C74" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D74" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G74">
-        <v>48.615311502552409</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3296,36 +3296,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>27</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="4">
-        <v>63.162866045230658</v>
-      </c>
-      <c r="C75" s="4">
-        <v>16.24231585470865</v>
-      </c>
-      <c r="D75" s="4">
-        <v>6.7416233923503457</v>
-      </c>
-      <c r="E75" s="4">
-        <v>9.837396594162982</v>
-      </c>
-      <c r="F75" s="4">
-        <v>8.9965377159044024</v>
+      <c r="B75" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C75" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D75" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G75">
-        <v>104.980739602357</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3334,36 +3334,36 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>24</v>
-      </c>
-      <c r="K75" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="4">
-        <v>23.071508432276421</v>
-      </c>
-      <c r="C76" s="4">
-        <v>10.289251537558259</v>
-      </c>
-      <c r="D76" s="4">
-        <v>7.5041577414846863</v>
-      </c>
-      <c r="E76" s="4">
-        <v>8.681581826378002</v>
-      </c>
-      <c r="F76" s="4">
-        <v>6.1642374708247347</v>
+      <c r="B76" s="3">
+        <v>22.997577865505981</v>
+      </c>
+      <c r="C76" s="3">
+        <v>65.427929038497822</v>
+      </c>
+      <c r="D76" s="3">
+        <v>15.33610361683899</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5.6096587684949011</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6.9574883869403914</v>
       </c>
       <c r="G76">
-        <v>55.710737008522123</v>
+        <v>116.3287576762781</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3372,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>21</v>
-      </c>
-      <c r="K76" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3386,22 +3386,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="4">
-        <v>38.140097137748917</v>
+        <v>21.434362030647112</v>
       </c>
       <c r="C77" s="4">
-        <v>20.845238860060501</v>
+        <v>38.783206684472468</v>
       </c>
       <c r="D77" s="4">
-        <v>9.1276213389537162</v>
+        <v>15.88895794930872</v>
       </c>
       <c r="E77" s="4">
-        <v>5.7807047672364504</v>
+        <v>11.38164431455751</v>
       </c>
       <c r="F77" s="4">
-        <v>5.3301631255514783</v>
+        <v>10.43665007594292</v>
       </c>
       <c r="G77">
-        <v>79.223825229551068</v>
+        <v>97.924821054928728</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3410,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K77" s="4">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3424,22 +3424,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>12.190134125708459</v>
+        <v>25.290854958109659</v>
       </c>
       <c r="C78" s="4">
-        <v>8.8583377692773979</v>
+        <v>23.892549657009258</v>
       </c>
       <c r="D78" s="4">
-        <v>9.5429609374951827</v>
+        <v>16.12586799703287</v>
       </c>
       <c r="E78" s="4">
-        <v>3.2282937297445562</v>
+        <v>5.1594254321891038</v>
       </c>
       <c r="F78" s="4">
-        <v>2.4088400471778422</v>
+        <v>3.2242325046971461</v>
       </c>
       <c r="G78">
-        <v>36.228566609403437</v>
+        <v>73.692930549038039</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>
@@ -3462,22 +3462,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="4">
-        <v>15.913254393120351</v>
+        <v>49.117377809285223</v>
       </c>
       <c r="C79" s="4">
-        <v>9.7758433983730786</v>
+        <v>12.624034646428109</v>
       </c>
       <c r="D79" s="4">
-        <v>10.57914287523484</v>
+        <v>16.398241538100091</v>
       </c>
       <c r="E79" s="4">
-        <v>24.21436637922487</v>
+        <v>20.79498413857845</v>
       </c>
       <c r="F79" s="4">
-        <v>9.8121404119260731</v>
+        <v>10.314219417748291</v>
       </c>
       <c r="G79">
-        <v>70.294747457879197</v>
+        <v>109.2488575501402</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K79" s="4">
         <v>1</v>
@@ -3499,23 +3499,23 @@
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="4">
-        <v>471.85888973422982</v>
-      </c>
-      <c r="C80" s="4">
-        <v>47.256292400423753</v>
-      </c>
-      <c r="D80" s="4">
-        <v>12.01632065932171</v>
-      </c>
-      <c r="E80" s="4">
-        <v>5.2112918166203688</v>
-      </c>
-      <c r="F80" s="4">
-        <v>2.7358784502824882</v>
+      <c r="B80" s="3">
+        <v>14.366616110443321</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33.779014879715326</v>
+      </c>
+      <c r="D80" s="3">
+        <v>16.746098651755052</v>
+      </c>
+      <c r="E80" s="3">
+        <v>6.2860155220583334</v>
+      </c>
+      <c r="F80" s="3">
+        <v>5.551541888005497</v>
       </c>
       <c r="G80">
-        <v>539.07867306087815</v>
+        <v>76.729287051977522</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3524,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>18</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3538,22 +3538,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>33.389288644564473</v>
+        <v>25.709307160705741</v>
       </c>
       <c r="C81" s="4">
-        <v>11.388126668596</v>
+        <v>29.167522252486659</v>
       </c>
       <c r="D81" s="4">
-        <v>12.884550198117219</v>
+        <v>16.865040762204298</v>
       </c>
       <c r="E81" s="4">
-        <v>13.67198618463417</v>
+        <v>6.0024211469967241</v>
       </c>
       <c r="F81" s="4">
-        <v>5.2545837129328428</v>
+        <v>4.3647137266916154</v>
       </c>
       <c r="G81">
-        <v>76.588535408844706</v>
+        <v>82.109005049085027</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3562,36 +3562,36 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="4">
-        <v>36.531669866485053</v>
-      </c>
-      <c r="C82" s="4">
-        <v>13.51647248545607</v>
-      </c>
-      <c r="D82" s="4">
-        <v>13.021416557286351</v>
-      </c>
-      <c r="E82" s="4">
-        <v>7.7112865062041864</v>
-      </c>
-      <c r="F82" s="4">
-        <v>5.8590823046404026</v>
+      <c r="B82" s="3">
+        <v>64.717028754451078</v>
+      </c>
+      <c r="C82" s="3">
+        <v>19.823901400531209</v>
+      </c>
+      <c r="D82" s="3">
+        <v>16.959144877645979</v>
+      </c>
+      <c r="E82" s="3">
+        <v>6.3385438854444178</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4.0178205260575517</v>
       </c>
       <c r="G82">
-        <v>76.639927720072066</v>
+        <v>111.8564394441302</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>12</v>
-      </c>
-      <c r="K82" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
       </c>
       <c r="L82" t="s">
         <v>12</v>
@@ -3614,22 +3614,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="4">
-        <v>16.00308128556755</v>
+        <v>9.9708937410945868</v>
       </c>
       <c r="C83" s="4">
-        <v>10.588627918930101</v>
+        <v>10.530711721168959</v>
       </c>
       <c r="D83" s="4">
-        <v>13.04166096033658</v>
+        <v>16.97119228236242</v>
       </c>
       <c r="E83" s="4">
-        <v>14.53430703248403</v>
+        <v>4.8034862200207566</v>
       </c>
       <c r="F83" s="4">
-        <v>13.11012523653263</v>
+        <v>3.4596823040696951</v>
       </c>
       <c r="G83">
-        <v>67.277802433850894</v>
+        <v>45.735966268716417</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3638,36 +3638,36 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K83" s="4">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="4">
-        <v>24.539135564202429</v>
-      </c>
-      <c r="C84" s="4">
-        <v>20.943112459358769</v>
-      </c>
-      <c r="D84" s="4">
-        <v>13.390351911751459</v>
-      </c>
-      <c r="E84" s="4">
-        <v>4.8969614353098834</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1.946533209733031</v>
+      <c r="B84" s="3">
+        <v>31.036321905157919</v>
+      </c>
+      <c r="C84" s="3">
+        <v>15.17552219245816</v>
+      </c>
+      <c r="D84" s="3">
+        <v>17.08634215872285</v>
+      </c>
+      <c r="E84" s="3">
+        <v>5.4843910967920886</v>
+      </c>
+      <c r="F84" s="3">
+        <v>3.773631739311754</v>
       </c>
       <c r="G84">
-        <v>65.716094580355573</v>
+        <v>72.556209092442771</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3676,36 +3676,36 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>14</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="4">
-        <v>44.804413153259709</v>
-      </c>
-      <c r="C85" s="4">
-        <v>17.94057050437576</v>
-      </c>
-      <c r="D85" s="4">
-        <v>13.580684558235429</v>
-      </c>
-      <c r="E85" s="4">
-        <v>7.7825887845969044</v>
-      </c>
-      <c r="F85" s="4">
-        <v>6.4180166597154864</v>
+      <c r="B85" s="3">
+        <v>9.1841310266003955</v>
+      </c>
+      <c r="C85" s="3">
+        <v>46.599037100440427</v>
+      </c>
+      <c r="D85" s="3">
+        <v>17.34686176757204</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4.2526921845650421</v>
+      </c>
+      <c r="F85" s="3">
+        <v>5.3743582894893862</v>
       </c>
       <c r="G85">
-        <v>90.526273660183293</v>
+        <v>82.757080368667289</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3714,36 +3714,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>3</v>
-      </c>
-      <c r="K85" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>25.290854958109659</v>
-      </c>
-      <c r="C86" s="4">
-        <v>23.892549657009258</v>
-      </c>
-      <c r="D86" s="4">
-        <v>16.12586799703287</v>
-      </c>
-      <c r="E86" s="4">
-        <v>5.1594254321891038</v>
-      </c>
-      <c r="F86" s="4">
-        <v>3.2242325046971461</v>
+      <c r="B86" s="3">
+        <v>29.919699939009931</v>
+      </c>
+      <c r="C86" s="3">
+        <v>187.08694689734179</v>
+      </c>
+      <c r="D86" s="3">
+        <v>17.885097457524029</v>
+      </c>
+      <c r="E86" s="3">
+        <v>9.2419710659011169</v>
+      </c>
+      <c r="F86" s="3">
+        <v>4.2439958255104422</v>
       </c>
       <c r="G86">
-        <v>73.692930549038039</v>
+        <v>248.3777111852875</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>22</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3766,22 +3766,22 @@
         <v>11</v>
       </c>
       <c r="B87" s="4">
-        <v>49.117377809285223</v>
+        <v>295.51199728932869</v>
       </c>
       <c r="C87" s="4">
-        <v>12.624034646428109</v>
+        <v>105.80720655271929</v>
       </c>
       <c r="D87" s="4">
-        <v>16.398241538100091</v>
+        <v>18.112225682586072</v>
       </c>
       <c r="E87" s="4">
-        <v>20.79498413857845</v>
+        <v>8.2095152097917463</v>
       </c>
       <c r="F87" s="4">
-        <v>10.314219417748291</v>
+        <v>8.4247123568936573</v>
       </c>
       <c r="G87">
-        <v>109.2488575501402</v>
+        <v>436.06565709131962</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K87" s="4">
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3804,22 +3804,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>120.50103766278011</v>
+        <v>19.89839903654817</v>
       </c>
       <c r="C88" s="4">
-        <v>59.320333753276692</v>
+        <v>8.0225650900531722</v>
       </c>
       <c r="D88" s="4">
-        <v>23.400780483198339</v>
+        <v>18.424102347094109</v>
       </c>
       <c r="E88" s="4">
-        <v>20.08060157096784</v>
+        <v>6.3700929354599403</v>
       </c>
       <c r="F88" s="4">
-        <v>16.373728807156009</v>
+        <v>2.1345141059165962</v>
       </c>
       <c r="G88">
-        <v>239.67648227737891</v>
+        <v>54.849673515071999</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3828,36 +3828,36 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K88" s="4">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="4">
-        <v>37.704528277227652</v>
-      </c>
-      <c r="C89" s="4">
-        <v>20.59911801727954</v>
-      </c>
-      <c r="D89" s="4">
-        <v>34.851453941034627</v>
-      </c>
-      <c r="E89" s="4">
-        <v>12.25639813171944</v>
-      </c>
-      <c r="F89" s="4">
-        <v>9.8370961922075537</v>
+      <c r="B89" s="3">
+        <v>40.856271170744961</v>
+      </c>
+      <c r="C89" s="3">
+        <v>14.335861633953741</v>
+      </c>
+      <c r="D89" s="3">
+        <v>18.592601824409378</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6.1426028104925052</v>
+      </c>
+      <c r="F89" s="3">
+        <v>2.8694720211044431</v>
       </c>
       <c r="G89">
-        <v>115.2485945594688</v>
+        <v>82.79680946070502</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>25</v>
-      </c>
-      <c r="K89" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
         <v>12</v>
@@ -3880,22 +3880,22 @@
         <v>11</v>
       </c>
       <c r="B90" s="4">
-        <v>31.809975111867729</v>
+        <v>31.759400486109101</v>
       </c>
       <c r="C90" s="4">
-        <v>20.07246407030296</v>
+        <v>15.59701318483326</v>
       </c>
       <c r="D90" s="4">
-        <v>41.951201893381082</v>
+        <v>19.19012815088724</v>
       </c>
       <c r="E90" s="4">
-        <v>12.806902609174299</v>
+        <v>21.8782282309142</v>
       </c>
       <c r="F90" s="4">
-        <v>5.4053825924563341</v>
+        <v>22.966383960047171</v>
       </c>
       <c r="G90">
-        <v>112.0459262771824</v>
+        <v>111.39115401279101</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3904,36 +3904,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K90" s="4">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="4">
-        <v>264.98865781714369</v>
-      </c>
-      <c r="C91" s="4">
-        <v>66.851056881614511</v>
-      </c>
-      <c r="D91" s="4">
-        <v>56.717365715276117</v>
-      </c>
-      <c r="E91" s="4">
-        <v>30.894842985082111</v>
-      </c>
-      <c r="F91" s="4">
-        <v>36.786247922306231</v>
+      <c r="B91" s="3">
+        <v>30.49432354642747</v>
+      </c>
+      <c r="C91" s="3">
+        <v>13.69263295203149</v>
+      </c>
+      <c r="D91" s="3">
+        <v>19.33370483125978</v>
+      </c>
+      <c r="E91" s="3">
+        <v>11.60012641709103</v>
+      </c>
+      <c r="F91" s="3">
+        <v>4.8535506687343251</v>
       </c>
       <c r="G91">
-        <v>456.23817132142261</v>
+        <v>79.974338415544082</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>15</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3956,22 +3956,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>151.1426217929457</v>
+        <v>8.8391652019098181</v>
       </c>
       <c r="C92" s="4">
-        <v>140.28051762630679</v>
+        <v>5.5750005504896842</v>
       </c>
       <c r="D92" s="4">
-        <v>143.70212613094151</v>
+        <v>19.500651849237389</v>
       </c>
       <c r="E92" s="4">
-        <v>178.49016728637639</v>
+        <v>13.21575935333623</v>
       </c>
       <c r="F92" s="4">
-        <v>83.234507061277853</v>
+        <v>5.0077196703385001</v>
       </c>
       <c r="G92">
-        <v>696.84993989784834</v>
+        <v>52.138296625311611</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3980,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K92" s="4">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3994,22 +3994,22 @@
         <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>8808.0153446236582</v>
+        <v>59.49392956351322</v>
       </c>
       <c r="C93" s="4">
-        <v>2850.3547541249668</v>
+        <v>44.188406469138847</v>
       </c>
       <c r="D93" s="4">
-        <v>1238.6210002331629</v>
+        <v>20.109273900452759</v>
       </c>
       <c r="E93" s="4">
-        <v>1956.7107258879159</v>
+        <v>15.679973597032619</v>
       </c>
       <c r="F93" s="4">
-        <v>961.2067472084193</v>
+        <v>12.17154001121</v>
       </c>
       <c r="G93">
-        <v>15814.90857207812</v>
+        <v>151.64312354134739</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4018,36 +4018,36 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K93" s="4">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="4">
-        <v>1938.7236497010761</v>
-      </c>
-      <c r="C94" s="4">
-        <v>1540.5508578621229</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1296.7460398632329</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1237.4477966923721</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1091.532766086963</v>
+      <c r="B94" s="3">
+        <v>7.3157872234537979</v>
+      </c>
+      <c r="C94" s="3">
+        <v>28.862948097598618</v>
+      </c>
+      <c r="D94" s="3">
+        <v>20.55659935718624</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6.5047294175228894</v>
+      </c>
+      <c r="F94" s="3">
+        <v>5.0656492974503804</v>
       </c>
       <c r="G94">
-        <v>7105.001110205767</v>
+        <v>68.305713393211931</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4056,36 +4056,36 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>9</v>
-      </c>
-      <c r="K94" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="4">
-        <v>19.898069386959008</v>
-      </c>
-      <c r="C95" s="4">
-        <v>24.550092302472979</v>
-      </c>
-      <c r="D95" s="4">
-        <v>24.309741643892469</v>
-      </c>
-      <c r="E95" s="4">
-        <v>5.8240885523926504</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1.9641369272405931</v>
+      <c r="B95" s="3">
+        <v>34.845605720432047</v>
+      </c>
+      <c r="C95" s="3">
+        <v>22.75787932334104</v>
+      </c>
+      <c r="D95" s="3">
+        <v>21.94793949266759</v>
+      </c>
+      <c r="E95" s="3">
+        <v>16.021979435303791</v>
+      </c>
+      <c r="F95" s="3">
+        <v>24.214938281696799</v>
       </c>
       <c r="G95">
-        <v>76.546128812957676</v>
+        <v>119.7883422534413</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4094,36 +4094,36 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>26</v>
-      </c>
-      <c r="K95" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="4">
-        <v>19.89839903654817</v>
-      </c>
-      <c r="C96" s="4">
-        <v>8.0225650900531722</v>
-      </c>
-      <c r="D96" s="4">
-        <v>18.424102347094109</v>
-      </c>
-      <c r="E96" s="4">
-        <v>6.3700929354599403</v>
-      </c>
-      <c r="F96" s="4">
-        <v>2.1345141059165962</v>
+      <c r="B96" s="3">
+        <v>18.470330917288269</v>
+      </c>
+      <c r="C96" s="3">
+        <v>26.14505389356588</v>
+      </c>
+      <c r="D96" s="3">
+        <v>22.13971996583647</v>
+      </c>
+      <c r="E96" s="3">
+        <v>26.929756202674952</v>
+      </c>
+      <c r="F96" s="3">
+        <v>46.156526621266522</v>
       </c>
       <c r="G96">
-        <v>54.849673515071999</v>
+        <v>139.84138760063209</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4132,36 +4132,36 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>11</v>
-      </c>
-      <c r="K96" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="4">
-        <v>9.9708937410945868</v>
-      </c>
-      <c r="C97" s="4">
-        <v>10.530711721168959</v>
-      </c>
-      <c r="D97" s="4">
-        <v>16.97119228236242</v>
-      </c>
-      <c r="E97" s="4">
-        <v>4.8034862200207566</v>
-      </c>
-      <c r="F97" s="4">
-        <v>3.4596823040696951</v>
+      <c r="B97" s="3">
+        <v>50.387192073828537</v>
+      </c>
+      <c r="C97" s="3">
+        <v>23.37916527857168</v>
+      </c>
+      <c r="D97" s="3">
+        <v>22.21322924824478</v>
+      </c>
+      <c r="E97" s="3">
+        <v>21.12458855439608</v>
+      </c>
+      <c r="F97" s="3">
+        <v>13.07159748269866</v>
       </c>
       <c r="G97">
-        <v>45.735966268716417</v>
+        <v>130.1757726377397</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4170,36 +4170,36 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>9</v>
-      </c>
-      <c r="K97" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="4">
-        <v>13.28280172031989</v>
-      </c>
-      <c r="C98" s="4">
-        <v>8.67332232386158</v>
-      </c>
-      <c r="D98" s="4">
-        <v>12.831343037400501</v>
-      </c>
-      <c r="E98" s="4">
-        <v>6.9287844982522753</v>
-      </c>
-      <c r="F98" s="4">
-        <v>3.843675180486946</v>
+      <c r="B98" s="3">
+        <v>113.77642198532401</v>
+      </c>
+      <c r="C98" s="3">
+        <v>34.002260573512487</v>
+      </c>
+      <c r="D98" s="3">
+        <v>22.775127415939391</v>
+      </c>
+      <c r="E98" s="3">
+        <v>6.2380954164482478</v>
+      </c>
+      <c r="F98" s="3">
+        <v>3.0812848668679731</v>
       </c>
       <c r="G98">
-        <v>45.55992676032119</v>
+        <v>179.87319025809211</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98" s="4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
       </c>
       <c r="L98" t="s">
         <v>13</v>
@@ -4222,22 +4222,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>34.873926369218402</v>
+        <v>37.399853411206053</v>
       </c>
       <c r="C99" s="4">
-        <v>36.44937731175483</v>
+        <v>18.87132711498106</v>
       </c>
       <c r="D99" s="4">
-        <v>34.427245827626201</v>
+        <v>23.32476029048043</v>
       </c>
       <c r="E99" s="4">
-        <v>5.9963808831292091</v>
+        <v>12.25607645691059</v>
       </c>
       <c r="F99" s="4">
-        <v>4.4485859217330486</v>
+        <v>9.5639493560163462</v>
       </c>
       <c r="G99">
-        <v>116.1955163134617</v>
+        <v>101.41596662959449</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4246,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4260,22 +4260,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>15.366943953203711</v>
+        <v>120.50103766278011</v>
       </c>
       <c r="C100" s="4">
-        <v>9.8574091896584903</v>
+        <v>59.320333753276692</v>
       </c>
       <c r="D100" s="4">
-        <v>44.213115535542798</v>
+        <v>23.400780483198339</v>
       </c>
       <c r="E100" s="4">
-        <v>13.60297993724976</v>
+        <v>20.08060157096784</v>
       </c>
       <c r="F100" s="4">
-        <v>4.4843244583945534</v>
+        <v>16.373728807156009</v>
       </c>
       <c r="G100">
-        <v>87.524773074049293</v>
+        <v>239.67648227737891</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4284,36 +4284,36 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K100" s="4">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="4">
-        <v>27.906409081631569</v>
-      </c>
-      <c r="C101" s="4">
-        <v>32.372050053040489</v>
-      </c>
-      <c r="D101" s="4">
-        <v>198.41126705482779</v>
-      </c>
-      <c r="E101" s="4">
-        <v>15.45847447655607</v>
-      </c>
-      <c r="F101" s="4">
-        <v>4.5226188545399708</v>
+      <c r="B101" s="3">
+        <v>7.157785083651854</v>
+      </c>
+      <c r="C101" s="3">
+        <v>42.366945688650297</v>
+      </c>
+      <c r="D101" s="3">
+        <v>23.425633551979139</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5.5487093270643708</v>
+      </c>
+      <c r="F101" s="3">
+        <v>6.3072939110531756</v>
       </c>
       <c r="G101">
-        <v>278.6708195205959</v>
+        <v>84.806367562398833</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4322,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>23</v>
-      </c>
-      <c r="K101" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
         <v>13</v>
@@ -4335,23 +4335,23 @@
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="4">
-        <v>42.053152754370849</v>
-      </c>
-      <c r="C102" s="4">
-        <v>8.7166223367953304</v>
-      </c>
-      <c r="D102" s="4">
-        <v>8.6680565072760256</v>
-      </c>
-      <c r="E102" s="4">
-        <v>7.7703879900708888</v>
-      </c>
-      <c r="F102" s="4">
-        <v>4.5547233375897704</v>
+      <c r="B102" s="3">
+        <v>39.62628745156205</v>
+      </c>
+      <c r="C102" s="3">
+        <v>15.34908648885669</v>
+      </c>
+      <c r="D102" s="3">
+        <v>23.6005439916275</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4.8036396788881888</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3.689827532837894</v>
       </c>
       <c r="G102">
-        <v>71.762942926102866</v>
+        <v>87.069385143772337</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4360,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>24</v>
-      </c>
-      <c r="K102" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>13</v>
@@ -4374,22 +4374,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>16.494633920667919</v>
+        <v>19.898069386959008</v>
       </c>
       <c r="C103" s="4">
-        <v>7.9719646364789014</v>
+        <v>24.550092302472979</v>
       </c>
       <c r="D103" s="4">
-        <v>3.3787945452099439</v>
+        <v>24.309741643892469</v>
       </c>
       <c r="E103" s="4">
-        <v>9.518753708378874</v>
+        <v>5.8240885523926504</v>
       </c>
       <c r="F103" s="4">
-        <v>4.6317651378479958</v>
+        <v>1.9641369272405931</v>
       </c>
       <c r="G103">
-        <v>41.995911948583633</v>
+        <v>76.546128812957676</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K103" s="4">
         <v>1</v>
@@ -4411,23 +4411,23 @@
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="4">
-        <v>8.8391652019098181</v>
-      </c>
-      <c r="C104" s="4">
-        <v>5.5750005504896842</v>
-      </c>
-      <c r="D104" s="4">
-        <v>19.500651849237389</v>
-      </c>
-      <c r="E104" s="4">
-        <v>13.21575935333623</v>
-      </c>
-      <c r="F104" s="4">
-        <v>5.0077196703385001</v>
+      <c r="B104" s="3">
+        <v>5.4005841044849916</v>
+      </c>
+      <c r="C104" s="3">
+        <v>29.646435499440649</v>
+      </c>
+      <c r="D104" s="3">
+        <v>24.885859365576749</v>
+      </c>
+      <c r="E104" s="3">
+        <v>5.5569478903989022</v>
+      </c>
+      <c r="F104" s="3">
+        <v>4.4471419679520876</v>
       </c>
       <c r="G104">
-        <v>52.138296625311611</v>
+        <v>69.936968827853363</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>19</v>
-      </c>
-      <c r="K104" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>13</v>
@@ -4449,23 +4449,23 @@
       <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="4">
-        <v>15.49233801039588</v>
-      </c>
-      <c r="C105" s="4">
-        <v>12.8868019665377</v>
-      </c>
-      <c r="D105" s="4">
-        <v>35.727428489402797</v>
-      </c>
-      <c r="E105" s="4">
-        <v>7.1905293598115136</v>
-      </c>
-      <c r="F105" s="4">
-        <v>5.1745880927133463</v>
+      <c r="B105" s="3">
+        <v>45.615117734380803</v>
+      </c>
+      <c r="C105" s="3">
+        <v>32.566991925500133</v>
+      </c>
+      <c r="D105" s="3">
+        <v>25.039721734179011</v>
+      </c>
+      <c r="E105" s="3">
+        <v>20.902851905634911</v>
+      </c>
+      <c r="F105" s="3">
+        <v>18.00867592565336</v>
       </c>
       <c r="G105">
-        <v>76.471685918861255</v>
+        <v>142.13335922534819</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4474,36 +4474,36 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>3</v>
-      </c>
-      <c r="K105" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="4">
-        <v>11.221458281778339</v>
-      </c>
-      <c r="C106" s="4">
-        <v>22.13555372701201</v>
-      </c>
-      <c r="D106" s="4">
-        <v>61.896200537775982</v>
-      </c>
-      <c r="E106" s="4">
-        <v>25.532398859086811</v>
-      </c>
-      <c r="F106" s="4">
-        <v>5.8880959346095567</v>
+      <c r="B106" s="3">
+        <v>39.518513409862891</v>
+      </c>
+      <c r="C106" s="3">
+        <v>35.411497546441701</v>
+      </c>
+      <c r="D106" s="3">
+        <v>28.169953493168229</v>
+      </c>
+      <c r="E106" s="3">
+        <v>6.8553035102603603</v>
+      </c>
+      <c r="F106" s="3">
+        <v>5.314994668602731</v>
       </c>
       <c r="G106">
-        <v>126.67370734026269</v>
+        <v>115.2702626283359</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4512,13 +4512,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>15</v>
-      </c>
-      <c r="K106" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4564,22 +4564,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>201.5720259334895</v>
+        <v>34.873926369218402</v>
       </c>
       <c r="C108" s="4">
-        <v>13.807945405414859</v>
+        <v>36.44937731175483</v>
       </c>
       <c r="D108" s="4">
-        <v>59.001366748849527</v>
+        <v>34.427245827626201</v>
       </c>
       <c r="E108" s="4">
-        <v>21.545375532836921</v>
+        <v>5.9963808831292091</v>
       </c>
       <c r="F108" s="4">
-        <v>9.271817336536964</v>
+        <v>4.4485859217330486</v>
       </c>
       <c r="G108">
-        <v>305.19853095712779</v>
+        <v>116.1955163134617</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
@@ -4602,22 +4602,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>21.434362030647112</v>
+        <v>37.704528277227652</v>
       </c>
       <c r="C109" s="4">
-        <v>38.783206684472468</v>
+        <v>20.59911801727954</v>
       </c>
       <c r="D109" s="4">
-        <v>15.88895794930872</v>
+        <v>34.851453941034627</v>
       </c>
       <c r="E109" s="4">
-        <v>11.38164431455751</v>
+        <v>12.25639813171944</v>
       </c>
       <c r="F109" s="4">
-        <v>10.43665007594292</v>
+        <v>9.8370961922075537</v>
       </c>
       <c r="G109">
-        <v>97.924821054928728</v>
+        <v>115.2485945594688</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4626,36 +4626,36 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K109" s="4">
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="4">
-        <v>1632.343299376249</v>
-      </c>
-      <c r="C110" s="4">
-        <v>286.22431288587842</v>
-      </c>
-      <c r="D110" s="4">
-        <v>46.753164175450337</v>
-      </c>
-      <c r="E110" s="4">
-        <v>22.453654707431749</v>
-      </c>
-      <c r="F110" s="4">
-        <v>11.404361833529739</v>
+      <c r="B110" s="3">
+        <v>13.471003365595241</v>
+      </c>
+      <c r="C110" s="3">
+        <v>70.913194725987083</v>
+      </c>
+      <c r="D110" s="3">
+        <v>35.26449306582164</v>
+      </c>
+      <c r="E110" s="3">
+        <v>9.6236668463718971</v>
+      </c>
+      <c r="F110" s="3">
+        <v>13.08898501294731</v>
       </c>
       <c r="G110">
-        <v>1999.1787929785401</v>
+        <v>142.36134301672311</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4664,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>18</v>
-      </c>
-      <c r="K110" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
         <v>13</v>
@@ -4678,22 +4678,22 @@
         <v>11</v>
       </c>
       <c r="B111" s="4">
-        <v>18.83732939249856</v>
+        <v>15.49233801039588</v>
       </c>
       <c r="C111" s="4">
-        <v>9.1927851278072552</v>
+        <v>12.8868019665377</v>
       </c>
       <c r="D111" s="4">
-        <v>11.522767565521351</v>
+        <v>35.727428489402797</v>
       </c>
       <c r="E111" s="4">
-        <v>19.7978089342309</v>
+        <v>7.1905293598115136</v>
       </c>
       <c r="F111" s="4">
-        <v>11.510567525327501</v>
+        <v>5.1745880927133463</v>
       </c>
       <c r="G111">
-        <v>70.861258545385553</v>
+        <v>76.471685918861255</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K111" s="4">
         <v>1</v>
@@ -4715,23 +4715,23 @@
       <c r="A112" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="4">
-        <v>59.49392956351322</v>
-      </c>
-      <c r="C112" s="4">
-        <v>44.188406469138847</v>
-      </c>
-      <c r="D112" s="4">
-        <v>20.109273900452759</v>
-      </c>
-      <c r="E112" s="4">
-        <v>15.679973597032619</v>
-      </c>
-      <c r="F112" s="4">
-        <v>12.17154001121</v>
+      <c r="B112" s="3">
+        <v>48.625796280048412</v>
+      </c>
+      <c r="C112" s="3">
+        <v>19.048555665635138</v>
+      </c>
+      <c r="D112" s="3">
+        <v>36.604290189119943</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7.5136752295014091</v>
+      </c>
+      <c r="F112" s="3">
+        <v>4.479724503553852</v>
       </c>
       <c r="G112">
-        <v>151.64312354134739</v>
+        <v>116.2720418678587</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4740,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>2</v>
-      </c>
-      <c r="K112" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
       </c>
       <c r="L112" t="s">
         <v>13</v>
@@ -4754,22 +4754,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>419.25586429239121</v>
+        <v>1467.0108323756949</v>
       </c>
       <c r="C113" s="4">
-        <v>93.108374174152033</v>
+        <v>299.49043578181647</v>
       </c>
       <c r="D113" s="4">
-        <v>55.818038614211758</v>
+        <v>41.694984227185763</v>
       </c>
       <c r="E113" s="4">
-        <v>23.345176295168251</v>
+        <v>58.94654727508987</v>
       </c>
       <c r="F113" s="4">
-        <v>19.859460049928561</v>
+        <v>81.930431610614377</v>
       </c>
       <c r="G113">
-        <v>611.38691342585162</v>
+        <v>1949.0732312704019</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4778,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K113" s="4">
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4792,22 +4792,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>52.146224884924052</v>
+        <v>31.809975111867729</v>
       </c>
       <c r="C114" s="4">
-        <v>84.225029657533781</v>
+        <v>20.07246407030296</v>
       </c>
       <c r="D114" s="4">
-        <v>92.398370724992972</v>
+        <v>41.951201893381082</v>
       </c>
       <c r="E114" s="4">
-        <v>79.346784178579284</v>
+        <v>12.806902609174299</v>
       </c>
       <c r="F114" s="4">
-        <v>35.398043815896898</v>
+        <v>5.4053825924563341</v>
       </c>
       <c r="G114">
-        <v>343.51445326192692</v>
+        <v>112.0459262771824</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4816,36 +4816,36 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="4">
-        <v>152.8558765166373</v>
-      </c>
-      <c r="C115" s="4">
-        <v>120.5143881633942</v>
-      </c>
-      <c r="D115" s="4">
-        <v>176.46961330308491</v>
-      </c>
-      <c r="E115" s="4">
-        <v>45.565605203606303</v>
-      </c>
-      <c r="F115" s="4">
-        <v>49.597633898832619</v>
+      <c r="B115" s="3">
+        <v>34.945078453366399</v>
+      </c>
+      <c r="C115" s="3">
+        <v>20.16433690517173</v>
+      </c>
+      <c r="D115" s="3">
+        <v>42.146012309315019</v>
+      </c>
+      <c r="E115" s="3">
+        <v>6.2676306087541898</v>
+      </c>
+      <c r="F115" s="3">
+        <v>3.407132420712816</v>
       </c>
       <c r="G115">
-        <v>545.00311708555557</v>
+        <v>106.9301906973202</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4854,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>13</v>
-      </c>
-      <c r="K115" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4868,22 +4868,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>1691.6520813896609</v>
+        <v>15.366943953203711</v>
       </c>
       <c r="C116" s="4">
-        <v>260.91709296970163</v>
+        <v>9.8574091896584903</v>
       </c>
       <c r="D116" s="4">
-        <v>50.151513297386039</v>
+        <v>44.213115535542798</v>
       </c>
       <c r="E116" s="4">
-        <v>37.041083071956088</v>
+        <v>13.60297993724976</v>
       </c>
       <c r="F116" s="4">
-        <v>121.67459551630451</v>
+        <v>4.4843244583945534</v>
       </c>
       <c r="G116">
-        <v>2161.43636624501</v>
+        <v>87.524773074049293</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
@@ -4905,23 +4905,23 @@
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4">
-        <v>117.0321746376358</v>
-      </c>
-      <c r="C117" s="4">
-        <v>144.35195987163681</v>
-      </c>
-      <c r="D117" s="4">
-        <v>171.4344858670911</v>
-      </c>
-      <c r="E117" s="4">
-        <v>206.96275381042949</v>
-      </c>
-      <c r="F117" s="4">
-        <v>150.2313916851804</v>
+      <c r="B117" s="3">
+        <v>33.061267361554847</v>
+      </c>
+      <c r="C117" s="3">
+        <v>36.717147142090766</v>
+      </c>
+      <c r="D117" s="3">
+        <v>44.267236066996063</v>
+      </c>
+      <c r="E117" s="3">
+        <v>6.6359176719217672</v>
+      </c>
+      <c r="F117" s="3">
+        <v>4.0109252065443526</v>
       </c>
       <c r="G117">
-        <v>790.01276587197356</v>
+        <v>124.6924934491078</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4930,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>7</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -4944,22 +4944,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>252.45290476072279</v>
+        <v>1632.343299376249</v>
       </c>
       <c r="C118" s="4">
-        <v>408.37982519917807</v>
+        <v>286.22431288587842</v>
       </c>
       <c r="D118" s="4">
-        <v>429.68378937519498</v>
+        <v>46.753164175450337</v>
       </c>
       <c r="E118" s="4">
-        <v>463.66994422841702</v>
+        <v>22.453654707431749</v>
       </c>
       <c r="F118" s="4">
-        <v>233.50217059918251</v>
+        <v>11.404361833529739</v>
       </c>
       <c r="G118">
-        <v>1787.6886341626951</v>
+        <v>1999.1787929785401</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
@@ -4982,22 +4982,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>56.101287645069277</v>
+        <v>1691.6520813896609</v>
       </c>
       <c r="C119" s="4">
-        <v>23.4439481950219</v>
+        <v>260.91709296970163</v>
       </c>
       <c r="D119" s="4">
-        <v>6.8044908923440994</v>
+        <v>50.151513297386039</v>
       </c>
       <c r="E119" s="4">
-        <v>3.156050595027283</v>
+        <v>37.041083071956088</v>
       </c>
       <c r="F119" s="4">
-        <v>1.805835676343416</v>
+        <v>121.67459551630451</v>
       </c>
       <c r="G119">
-        <v>91.311613003805945</v>
+        <v>2161.43636624501</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5006,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K119" s="4">
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5020,22 +5020,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>28.65023067673129</v>
+        <v>83.069242812968241</v>
       </c>
       <c r="C120" s="4">
-        <v>20.298850243426461</v>
+        <v>29.837901454290691</v>
       </c>
       <c r="D120" s="4">
-        <v>11.41719621549216</v>
+        <v>52.408086431466543</v>
       </c>
       <c r="E120" s="4">
-        <v>3.9081188035394949</v>
+        <v>16.186442312113009</v>
       </c>
       <c r="F120" s="4">
-        <v>2.2392119096313681</v>
+        <v>5.7007799349152304</v>
       </c>
       <c r="G120">
-        <v>66.513607848820783</v>
+        <v>187.20245294575369</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K120" s="4">
         <v>1</v>
@@ -5058,22 +5058,22 @@
         <v>11</v>
       </c>
       <c r="B121" s="4">
-        <v>21.059371886295441</v>
+        <v>419.25586429239121</v>
       </c>
       <c r="C121" s="4">
-        <v>32.239069674654431</v>
+        <v>93.108374174152033</v>
       </c>
       <c r="D121" s="4">
-        <v>3.3310539425737429</v>
+        <v>55.818038614211758</v>
       </c>
       <c r="E121" s="4">
-        <v>2.7096343296451422</v>
+        <v>23.345176295168251</v>
       </c>
       <c r="F121" s="4">
-        <v>2.4297194989152211</v>
+        <v>19.859460049928561</v>
       </c>
       <c r="G121">
-        <v>61.768849332083967</v>
+        <v>611.38691342585162</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5082,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K121" s="4">
         <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5096,22 +5096,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>45.389419338817909</v>
+        <v>264.98865781714369</v>
       </c>
       <c r="C122" s="4">
-        <v>10.34654078566588</v>
+        <v>66.851056881614511</v>
       </c>
       <c r="D122" s="4">
-        <v>5.2772298952180838</v>
+        <v>56.717365715276117</v>
       </c>
       <c r="E122" s="4">
-        <v>4.5400386109259729</v>
+        <v>30.894842985082111</v>
       </c>
       <c r="F122" s="4">
-        <v>3.1081625965532429</v>
+        <v>36.786247922306231</v>
       </c>
       <c r="G122">
-        <v>68.661391227181085</v>
+        <v>456.23817132142261</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5120,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="J122">
+        <v>15</v>
+      </c>
+      <c r="K122" s="4">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
         <v>12</v>
-      </c>
-      <c r="K122" s="4">
-        <v>1</v>
-      </c>
-      <c r="L122" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5134,22 +5134,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>9848.3394662920618</v>
+        <v>201.5720259334895</v>
       </c>
       <c r="C123" s="4">
-        <v>1006.016548828861</v>
+        <v>13.807945405414859</v>
       </c>
       <c r="D123" s="4">
-        <v>72.942700105629783</v>
+        <v>59.001366748849527</v>
       </c>
       <c r="E123" s="4">
-        <v>10.388115537368179</v>
+        <v>21.545375532836921</v>
       </c>
       <c r="F123" s="4">
-        <v>3.2505578358248148</v>
+        <v>9.271817336536964</v>
       </c>
       <c r="G123">
-        <v>10940.93738859975</v>
+        <v>305.19853095712779</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5158,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K123" s="4">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5172,22 +5172,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>46.739892842285244</v>
+        <v>11.221458281778339</v>
       </c>
       <c r="C124" s="4">
-        <v>14.127586973250621</v>
+        <v>22.13555372701201</v>
       </c>
       <c r="D124" s="4">
-        <v>4.5237821833227301</v>
+        <v>61.896200537775982</v>
       </c>
       <c r="E124" s="4">
-        <v>4.0616173395362436</v>
+        <v>25.532398859086811</v>
       </c>
       <c r="F124" s="4">
-        <v>3.5911941186119689</v>
+        <v>5.8880959346095567</v>
       </c>
       <c r="G124">
-        <v>73.044073457006803</v>
+        <v>126.67370734026269</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5196,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K124" s="4">
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5210,22 +5210,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>25.709307160705741</v>
+        <v>1681.6264786838669</v>
       </c>
       <c r="C125" s="4">
-        <v>29.167522252486659</v>
+        <v>259.72880878467362</v>
       </c>
       <c r="D125" s="4">
-        <v>16.865040762204298</v>
+        <v>66.342861385372075</v>
       </c>
       <c r="E125" s="4">
-        <v>6.0024211469967241</v>
+        <v>29.808418897497191</v>
       </c>
       <c r="F125" s="4">
-        <v>4.3647137266916154</v>
+        <v>12.17162671655346</v>
       </c>
       <c r="G125">
-        <v>82.109005049085027</v>
+        <v>2049.6781944679628</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
@@ -5247,23 +5247,23 @@
       <c r="A126" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="4">
-        <v>16.079108685864458</v>
-      </c>
-      <c r="C126" s="4">
-        <v>9.7940118474465088</v>
-      </c>
-      <c r="D126" s="4">
-        <v>8.0142927334192571</v>
-      </c>
-      <c r="E126" s="4">
-        <v>5.0614553617908404</v>
-      </c>
-      <c r="F126" s="4">
-        <v>4.5869894205610757</v>
+      <c r="B126" s="3">
+        <v>1809.3810379391321</v>
+      </c>
+      <c r="C126" s="3">
+        <v>328.92160399326849</v>
+      </c>
+      <c r="D126" s="3">
+        <v>69.238317537377995</v>
+      </c>
+      <c r="E126" s="3">
+        <v>35.889117701170953</v>
+      </c>
+      <c r="F126" s="3">
+        <v>19.145274396706832</v>
       </c>
       <c r="G126">
-        <v>43.53585804908213</v>
+        <v>2262.575351567657</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5272,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>10</v>
-      </c>
-      <c r="K126" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0</v>
       </c>
       <c r="L126" t="s">
         <v>14</v>
@@ -5285,23 +5285,23 @@
       <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="4">
-        <v>20.82920752070412</v>
-      </c>
-      <c r="C127" s="4">
-        <v>14.004998823068179</v>
-      </c>
-      <c r="D127" s="4">
-        <v>6.6449097717588987</v>
-      </c>
-      <c r="E127" s="4">
-        <v>5.312758368515718</v>
-      </c>
-      <c r="F127" s="4">
-        <v>4.9385992603943452</v>
+      <c r="B127" s="3">
+        <v>35.949833805661562</v>
+      </c>
+      <c r="C127" s="3">
+        <v>24.065680776494819</v>
+      </c>
+      <c r="D127" s="3">
+        <v>71.722581288278377</v>
+      </c>
+      <c r="E127" s="3">
+        <v>7.3947128513960063</v>
+      </c>
+      <c r="F127" s="3">
+        <v>3.7299631355635552</v>
       </c>
       <c r="G127">
-        <v>51.730473744441269</v>
+        <v>142.86277185739431</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5310,13 +5310,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5324,22 +5324,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>61.682518267644546</v>
+        <v>9848.3394662920618</v>
       </c>
       <c r="C128" s="4">
-        <v>24.320930714179848</v>
+        <v>1006.016548828861</v>
       </c>
       <c r="D128" s="4">
-        <v>7.9589460388650934</v>
+        <v>72.942700105629783</v>
       </c>
       <c r="E128" s="4">
-        <v>7.0202389175824784</v>
+        <v>10.388115537368179</v>
       </c>
       <c r="F128" s="4">
-        <v>5.0254452280147346</v>
+        <v>3.2505578358248148</v>
       </c>
       <c r="G128">
-        <v>106.00807916628671</v>
+        <v>10940.93738859975</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
@@ -5361,23 +5361,23 @@
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="4">
-        <v>40.204631038400187</v>
-      </c>
-      <c r="C129" s="4">
-        <v>13.749565227046469</v>
-      </c>
-      <c r="D129" s="4">
-        <v>4.0980483520170887</v>
-      </c>
-      <c r="E129" s="4">
-        <v>5.5250240146898877</v>
-      </c>
-      <c r="F129" s="4">
-        <v>5.3037189525783024</v>
+      <c r="B129" s="3">
+        <v>50.659233559510163</v>
+      </c>
+      <c r="C129" s="3">
+        <v>33.479581913383001</v>
+      </c>
+      <c r="D129" s="3">
+        <v>83.417951004292576</v>
+      </c>
+      <c r="E129" s="3">
+        <v>26.923695312195509</v>
+      </c>
+      <c r="F129" s="3">
+        <v>29.71627493097499</v>
       </c>
       <c r="G129">
-        <v>68.88098758473194</v>
+        <v>224.19673672035631</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5386,36 +5386,36 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>16</v>
-      </c>
-      <c r="K129" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="4">
-        <v>29.107750192893281</v>
-      </c>
-      <c r="C130" s="4">
-        <v>12.13705870076614</v>
-      </c>
-      <c r="D130" s="4">
-        <v>13.374171187652729</v>
-      </c>
-      <c r="E130" s="4">
-        <v>14.217049368919289</v>
-      </c>
-      <c r="F130" s="4">
-        <v>5.429169371367113</v>
+      <c r="B130" s="3">
+        <v>33.796665927121367</v>
+      </c>
+      <c r="C130" s="3">
+        <v>21.477569416988249</v>
+      </c>
+      <c r="D130" s="3">
+        <v>88.508962451389337</v>
+      </c>
+      <c r="E130" s="3">
+        <v>9.0047232909749368</v>
+      </c>
+      <c r="F130" s="3">
+        <v>3.832843776640896</v>
       </c>
       <c r="G130">
-        <v>74.265198821598545</v>
+        <v>156.6207648631148</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5424,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>18</v>
-      </c>
-      <c r="K130" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5438,22 +5438,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>83.069242812968241</v>
+        <v>52.146224884924052</v>
       </c>
       <c r="C131" s="4">
-        <v>29.837901454290691</v>
+        <v>84.225029657533781</v>
       </c>
       <c r="D131" s="4">
-        <v>52.408086431466543</v>
+        <v>92.398370724992972</v>
       </c>
       <c r="E131" s="4">
-        <v>16.186442312113009</v>
+        <v>79.346784178579284</v>
       </c>
       <c r="F131" s="4">
-        <v>5.7007799349152304</v>
+        <v>35.398043815896898</v>
       </c>
       <c r="G131">
-        <v>187.20245294575369</v>
+        <v>343.51445326192692</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5462,36 +5462,36 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4">
-        <v>144.4771136060038</v>
-      </c>
-      <c r="C132" s="4">
-        <v>34.272983162150076</v>
-      </c>
-      <c r="D132" s="4">
-        <v>6.4936740362311092</v>
-      </c>
-      <c r="E132" s="4">
-        <v>9.1636205867119394</v>
-      </c>
-      <c r="F132" s="4">
-        <v>5.7916593146016666</v>
+      <c r="B132" s="3">
+        <v>43.432522689355856</v>
+      </c>
+      <c r="C132" s="3">
+        <v>31.825480232849898</v>
+      </c>
+      <c r="D132" s="3">
+        <v>99.942875990044485</v>
+      </c>
+      <c r="E132" s="3">
+        <v>16.485856422298411</v>
+      </c>
+      <c r="F132" s="3">
+        <v>6.2824368029180029</v>
       </c>
       <c r="G132">
-        <v>200.19905070569871</v>
+        <v>197.9691721374667</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5500,36 +5500,36 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>23</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="4">
-        <v>295.51199728932869</v>
-      </c>
-      <c r="C133" s="4">
-        <v>105.80720655271929</v>
-      </c>
-      <c r="D133" s="4">
-        <v>18.112225682586072</v>
-      </c>
-      <c r="E133" s="4">
-        <v>8.2095152097917463</v>
-      </c>
-      <c r="F133" s="4">
-        <v>8.4247123568936573</v>
+      <c r="B133" s="3">
+        <v>2590.4869589748541</v>
+      </c>
+      <c r="C133" s="3">
+        <v>169.7207471260628</v>
+      </c>
+      <c r="D133" s="3">
+        <v>104.93377137794511</v>
+      </c>
+      <c r="E133" s="3">
+        <v>187.55771657536741</v>
+      </c>
+      <c r="F133" s="3">
+        <v>377.86311274465407</v>
       </c>
       <c r="G133">
-        <v>436.06565709131962</v>
+        <v>3430.5623067988831</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5538,13 +5538,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>4</v>
-      </c>
-      <c r="K133" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5552,22 +5552,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>37.399853411206053</v>
+        <v>923.50616779632401</v>
       </c>
       <c r="C134" s="4">
-        <v>18.87132711498106</v>
+        <v>370.94315102184618</v>
       </c>
       <c r="D134" s="4">
-        <v>23.32476029048043</v>
+        <v>132.8623419779436</v>
       </c>
       <c r="E134" s="4">
-        <v>12.25607645691059</v>
+        <v>173.78795368377689</v>
       </c>
       <c r="F134" s="4">
-        <v>9.5639493560163462</v>
+        <v>190.94928721757341</v>
       </c>
       <c r="G134">
-        <v>101.41596662959449</v>
+        <v>1792.048901697465</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
@@ -5590,22 +5590,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>59.461192904323667</v>
+        <v>2155.6752068581991</v>
       </c>
       <c r="C135" s="4">
-        <v>20.611867264170041</v>
+        <v>270.7938064726136</v>
       </c>
       <c r="D135" s="4">
-        <v>14.140919919957581</v>
+        <v>140.02521442064651</v>
       </c>
       <c r="E135" s="4">
-        <v>10.60593255102691</v>
+        <v>129.20345951551411</v>
       </c>
       <c r="F135" s="4">
-        <v>9.7398671991345793</v>
+        <v>839.68866710375335</v>
       </c>
       <c r="G135">
-        <v>114.5597798386128</v>
+        <v>3535.3863543707262</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
@@ -5628,22 +5628,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>1681.6264786838669</v>
+        <v>151.1426217929457</v>
       </c>
       <c r="C136" s="4">
-        <v>259.72880878467362</v>
+        <v>140.28051762630679</v>
       </c>
       <c r="D136" s="4">
-        <v>66.342861385372075</v>
+        <v>143.70212613094151</v>
       </c>
       <c r="E136" s="4">
-        <v>29.808418897497191</v>
+        <v>178.49016728637639</v>
       </c>
       <c r="F136" s="4">
-        <v>12.17162671655346</v>
+        <v>83.234507061277853</v>
       </c>
       <c r="G136">
-        <v>2049.6781944679628</v>
+        <v>696.84993989784834</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5666,22 +5666,22 @@
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>33.606248960559043</v>
+        <v>117.0321746376358</v>
       </c>
       <c r="C137" s="4">
-        <v>16.74702181622915</v>
+        <v>144.35195987163681</v>
       </c>
       <c r="D137" s="4">
-        <v>10.630002506488291</v>
+        <v>171.4344858670911</v>
       </c>
       <c r="E137" s="4">
-        <v>13.447224337531409</v>
+        <v>206.96275381042949</v>
       </c>
       <c r="F137" s="4">
-        <v>16.13197956364392</v>
+        <v>150.2313916851804</v>
       </c>
       <c r="G137">
-        <v>90.562477184451808</v>
+        <v>790.01276587197356</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5690,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K137" s="4">
         <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5704,22 +5704,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>31.759400486109101</v>
+        <v>152.8558765166373</v>
       </c>
       <c r="C138" s="4">
-        <v>15.59701318483326</v>
+        <v>120.5143881633942</v>
       </c>
       <c r="D138" s="4">
-        <v>19.19012815088724</v>
+        <v>176.46961330308491</v>
       </c>
       <c r="E138" s="4">
-        <v>21.8782282309142</v>
+        <v>45.565605203606303</v>
       </c>
       <c r="F138" s="4">
-        <v>22.966383960047171</v>
+        <v>49.597633898832619</v>
       </c>
       <c r="G138">
-        <v>111.39115401279101</v>
+        <v>545.00311708555557</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5728,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5742,22 +5742,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>82.86596872849708</v>
+        <v>27.906409081631569</v>
       </c>
       <c r="C139" s="4">
-        <v>39.797292464116637</v>
+        <v>32.372050053040489</v>
       </c>
       <c r="D139" s="4">
-        <v>12.9501991271236</v>
+        <v>198.41126705482779</v>
       </c>
       <c r="E139" s="4">
-        <v>19.685092213170169</v>
+        <v>15.45847447655607</v>
       </c>
       <c r="F139" s="4">
-        <v>29.061832133725211</v>
+        <v>4.5226188545399708</v>
       </c>
       <c r="G139">
-        <v>184.36038466663271</v>
+        <v>278.6708195205959</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5766,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K139" s="4">
         <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5780,22 +5780,22 @@
         <v>11</v>
       </c>
       <c r="B140" s="4">
-        <v>1467.0108323756949</v>
+        <v>1672.88587031154</v>
       </c>
       <c r="C140" s="4">
-        <v>299.49043578181647</v>
+        <v>439.65205170499883</v>
       </c>
       <c r="D140" s="4">
-        <v>41.694984227185763</v>
+        <v>297.15943118102672</v>
       </c>
       <c r="E140" s="4">
-        <v>58.94654727508987</v>
+        <v>257.52912839517091</v>
       </c>
       <c r="F140" s="4">
-        <v>81.930431610614377</v>
+        <v>174.4239073265108</v>
       </c>
       <c r="G140">
-        <v>1949.0732312704019</v>
+        <v>2841.6503889192481</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K140" s="4">
         <v>1</v>
@@ -5818,22 +5818,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>1672.88587031154</v>
+        <v>1438.24041158152</v>
       </c>
       <c r="C141" s="4">
-        <v>439.65205170499883</v>
+        <v>473.14117840785229</v>
       </c>
       <c r="D141" s="4">
-        <v>297.15943118102672</v>
+        <v>330.20505555926002</v>
       </c>
       <c r="E141" s="4">
-        <v>257.52912839517091</v>
+        <v>187.67935608932919</v>
       </c>
       <c r="F141" s="4">
-        <v>174.4239073265108</v>
+        <v>226.73858460301199</v>
       </c>
       <c r="G141">
-        <v>2841.6503889192481</v>
+        <v>2656.0045862409738</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -5856,22 +5856,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>923.50616779632401</v>
+        <v>252.45290476072279</v>
       </c>
       <c r="C142" s="4">
-        <v>370.94315102184618</v>
+        <v>408.37982519917807</v>
       </c>
       <c r="D142" s="4">
-        <v>132.8623419779436</v>
+        <v>429.68378937519498</v>
       </c>
       <c r="E142" s="4">
-        <v>173.78795368377689</v>
+        <v>463.66994422841702</v>
       </c>
       <c r="F142" s="4">
-        <v>190.94928721757341</v>
+        <v>233.50217059918251</v>
       </c>
       <c r="G142">
-        <v>1792.048901697465</v>
+        <v>1787.6886341626951</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5880,13 +5880,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5894,22 +5894,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>1438.24041158152</v>
+        <v>1640.1430834366879</v>
       </c>
       <c r="C143" s="4">
-        <v>473.14117840785229</v>
+        <v>1205.0504425672921</v>
       </c>
       <c r="D143" s="4">
-        <v>330.20505555926002</v>
+        <v>847.64195889560779</v>
       </c>
       <c r="E143" s="4">
-        <v>187.67935608932919</v>
+        <v>1000.917253248106</v>
       </c>
       <c r="F143" s="4">
-        <v>226.73858460301199</v>
+        <v>806.69341019139074</v>
       </c>
       <c r="G143">
-        <v>2656.0045862409738</v>
+        <v>5500.4461483390824</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5932,22 +5932,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>1640.1430834366879</v>
+        <v>8808.0153446236582</v>
       </c>
       <c r="C144" s="4">
-        <v>1205.0504425672921</v>
+        <v>2850.3547541249668</v>
       </c>
       <c r="D144" s="4">
-        <v>847.64195889560779</v>
+        <v>1238.6210002331629</v>
       </c>
       <c r="E144" s="4">
-        <v>1000.917253248106</v>
+        <v>1956.7107258879159</v>
       </c>
       <c r="F144" s="4">
-        <v>806.69341019139074</v>
+        <v>961.2067472084193</v>
       </c>
       <c r="G144">
-        <v>5500.4461483390824</v>
+        <v>15814.90857207812</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5956,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5970,22 +5970,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>2155.6752068581991</v>
+        <v>1938.7236497010761</v>
       </c>
       <c r="C145" s="4">
-        <v>270.7938064726136</v>
+        <v>1540.5508578621229</v>
       </c>
       <c r="D145" s="4">
-        <v>140.02521442064651</v>
+        <v>1296.7460398632329</v>
       </c>
       <c r="E145" s="4">
-        <v>129.20345951551411</v>
+        <v>1237.4477966923721</v>
       </c>
       <c r="F145" s="4">
-        <v>839.68866710375335</v>
+        <v>1091.532766086963</v>
       </c>
       <c r="G145">
-        <v>3535.3863543707262</v>
+        <v>7105.001110205767</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5994,16 +5994,19 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L147">
+    <sortCondition ref="D2:D147"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>